--- a/tumlknexpectimax/excel_data/input_data_its_munich_phillipson.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_its_munich_phillipson.xlsx
@@ -782,6 +782,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -860,7 +861,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>83454.683914942696</c:v>
+                  <c:v>46411.622601241266</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>83454.683914942696</c:v>
@@ -875,7 +876,7 @@
                   <c:v>83454.683914942696</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83454.683914942696</c:v>
+                  <c:v>46411.622601241266</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>83454.683914942696</c:v>
@@ -976,7 +977,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5652.0684567357575</c:v>
+                  <c:v>1539.8347599557078</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3844.3769660028456</c:v>
@@ -991,7 +992,7 @@
                   <c:v>3844.3769660028456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5652.0684567357575</c:v>
+                  <c:v>1539.8347599557078</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3844.3769660028456</c:v>
@@ -1006,13 +1007,13 @@
                   <c:v>3663.5010909611156</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7526.1810909611158</c:v>
+                  <c:v>16649.727205824103</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3778.2685110852781</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3663.5010909611156</c:v>
+                  <c:v>1452.7127519276221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1101,7 +1102,7 @@
                   <c:v>3900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3900</c:v>
+                  <c:v>27300</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5940</c:v>
@@ -1217,13 +1218,13 @@
                   <c:v>75130</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>210130</c:v>
+                  <c:v>210910</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>211248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74640</c:v>
+                  <c:v>323440</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>76275</c:v>
@@ -1238,7 +1239,7 @@
                   <c:v>92100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>213050</c:v>
+                  <c:v>153050</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>170800</c:v>
@@ -1265,11 +1266,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="50804224"/>
-        <c:axId val="104141888"/>
+        <c:axId val="175605248"/>
+        <c:axId val="176268416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50804224"/>
+        <c:axId val="175605248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,13 +1292,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104141888"/>
+        <c:crossAx val="176268416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1305,7 +1307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104141888"/>
+        <c:axId val="176268416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,19 +1330,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50804224"/>
+        <c:crossAx val="175605248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1385,6 +1389,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1463,7 +1468,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>83454.683914942696</c:v>
+                  <c:v>46411.622601241266</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>83454.683914942696</c:v>
@@ -1478,7 +1483,7 @@
                   <c:v>83454.683914942696</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83454.683914942696</c:v>
+                  <c:v>46411.622601241266</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>83454.683914942696</c:v>
@@ -1579,7 +1584,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5652.0684567357575</c:v>
+                  <c:v>1539.8347599557078</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3844.3769660028456</c:v>
@@ -1594,7 +1599,7 @@
                   <c:v>3844.3769660028456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5652.0684567357575</c:v>
+                  <c:v>1539.8347599557078</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3844.3769660028456</c:v>
@@ -1609,13 +1614,13 @@
                   <c:v>3663.5010909611156</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7526.1810909611158</c:v>
+                  <c:v>16649.727205824103</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3778.2685110852781</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3663.5010909611156</c:v>
+                  <c:v>1452.7127519276221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1704,7 +1709,7 @@
                   <c:v>3900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3900</c:v>
+                  <c:v>27300</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5940</c:v>
@@ -1820,13 +1825,13 @@
                   <c:v>75130</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>210130</c:v>
+                  <c:v>210910</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>211248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74640</c:v>
+                  <c:v>323440</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>76275</c:v>
@@ -1841,7 +1846,7 @@
                   <c:v>92100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>213050</c:v>
+                  <c:v>153050</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>170800</c:v>
@@ -1868,11 +1873,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="50491392"/>
-        <c:axId val="104144192"/>
+        <c:axId val="176316416"/>
+        <c:axId val="176270720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50491392"/>
+        <c:axId val="176316416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1894,13 +1899,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104144192"/>
+        <c:crossAx val="176270720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1908,7 +1914,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104144192"/>
+        <c:axId val="176270720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,19 +1937,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50491392"/>
+        <c:crossAx val="176316416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2070,46 +2078,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>36062.342937580564</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19283.042118970367</c:v>
+                  <c:v>19283.042119999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43709.823692218881</c:v>
+                  <c:v>43709.823689999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44248.4220525376</c:v>
+                  <c:v>44248.422050000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10540.776519765759</c:v>
+                  <c:v>19212.762709999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11938.918689039821</c:v>
+                  <c:v>11938.91869</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50983.71612182937</c:v>
+                  <c:v>50983.716119999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47726.863400003029</c:v>
+                  <c:v>47726.863400000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48220.289169209609</c:v>
+                  <c:v>48220.289169999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37682.867713520049</c:v>
+                  <c:v>37682.867709999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44827.8721002112</c:v>
+                  <c:v>44827.872100000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12139.814930199653</c:v>
+                  <c:v>12139.81493</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47419.574760442287</c:v>
+                  <c:v>47419.574760000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50088.476920599649</c:v>
+                  <c:v>50088.476920000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2129,11 +2137,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="48054272"/>
-        <c:axId val="50677440"/>
+        <c:axId val="176320000"/>
+        <c:axId val="176273024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48054272"/>
+        <c:axId val="176320000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2143,7 +2151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50677440"/>
+        <c:crossAx val="176273024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2151,7 +2159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50677440"/>
+        <c:axId val="176273024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,7 +2189,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48054272"/>
+        <c:crossAx val="176320000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2218,7 +2226,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2254,7 +2262,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2297,7 +2305,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,8 +2615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2705,7 +2713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
@@ -2741,13 +2749,13 @@
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
       <c r="W2" s="13">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="X2" s="13">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
@@ -2806,10 +2814,10 @@
         <v>685372.28279667499</v>
       </c>
       <c r="S3" s="11">
-        <v>83454.683914942696</v>
+        <v>46411.622601241266</v>
       </c>
       <c r="T3" s="11">
-        <v>5652.0684567357575</v>
+        <v>1539.8347599557078</v>
       </c>
       <c r="U3" s="11">
         <v>2000</v>
@@ -2823,10 +2831,10 @@
       </c>
       <c r="X3" s="12">
         <f>S3+T3+U3+V3</f>
-        <v>377226.75237167848</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>336071.45736119698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
@@ -2904,7 +2912,7 @@
         <v>165269.06088094553</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
@@ -2978,7 +2986,7 @@
         <v>135017.46299989594</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
@@ -3042,21 +3050,21 @@
         <v>4383.6369516535042</v>
       </c>
       <c r="U6" s="11">
-        <v>3900</v>
+        <v>27300</v>
       </c>
       <c r="V6" s="11">
-        <v>210130</v>
+        <v>210910</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="0"/>
-        <v>214030</v>
+        <v>238210</v>
       </c>
       <c r="X6" s="12">
         <f t="shared" si="1"/>
-        <v>270017.46299989591</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>294197.46299989591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
@@ -3134,7 +3142,7 @@
         <v>304487.06088094553</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
@@ -3190,27 +3198,27 @@
         <v>685372.28279667499</v>
       </c>
       <c r="S8" s="11">
-        <v>83454.683914942696</v>
+        <v>46411.622601241266</v>
       </c>
       <c r="T8" s="11">
-        <v>5652.0684567357575</v>
+        <v>1539.8347599557078</v>
       </c>
       <c r="U8" s="11">
         <v>2700</v>
       </c>
       <c r="V8" s="11">
-        <v>74640</v>
+        <v>323440</v>
       </c>
       <c r="W8" s="11">
         <f t="shared" si="0"/>
-        <v>77340</v>
+        <v>326140</v>
       </c>
       <c r="X8" s="12">
         <f t="shared" si="1"/>
-        <v>166446.75237167845</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>374091.45736119698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -3286,7 +3294,7 @@
         <v>169514.06088094553</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
@@ -3361,7 +3369,7 @@
         <v>140087.46299989594</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -3438,7 +3446,7 @@
         <v>235814.83355361945</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
@@ -3514,7 +3522,7 @@
         <v>169033.92770707383</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
@@ -3574,24 +3582,24 @@
         <v>68870.426616112716</v>
       </c>
       <c r="T13" s="11">
-        <v>7526.1810909611158</v>
+        <v>16649.727205824103</v>
       </c>
       <c r="U13" s="11">
         <v>8800</v>
       </c>
       <c r="V13" s="11">
-        <v>213050</v>
+        <v>153050</v>
       </c>
       <c r="W13" s="11">
         <f t="shared" si="0"/>
-        <v>221850</v>
+        <v>161850</v>
       </c>
       <c r="X13" s="12">
         <f t="shared" si="1"/>
-        <v>298246.6077070738</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>247370.15382193681</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
@@ -3667,7 +3675,7 @@
         <v>250964.83355361945</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
@@ -3727,7 +3735,7 @@
         <v>68870.426616112716</v>
       </c>
       <c r="T15" s="11">
-        <v>3663.5010909611156</v>
+        <v>1452.7127519276221</v>
       </c>
       <c r="U15" s="11">
         <v>8800</v>
@@ -3741,7 +3749,7 @@
       </c>
       <c r="X15" s="12">
         <f t="shared" ref="X15" si="2">SUM(S15:V15)</f>
-        <v>159383.92770707383</v>
+        <v>157173.13936804034</v>
       </c>
     </row>
     <row r="27" spans="17:17" ht="14.45" x14ac:dyDescent="0.3">
@@ -3750,7 +3758,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="42" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R42" s="5" t="s">
         <v>52</v>
       </c>
@@ -3764,12 +3772,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="18:25" x14ac:dyDescent="0.25">
       <c r="S43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R44" t="s">
         <v>55</v>
       </c>
@@ -3789,7 +3797,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="18:25" x14ac:dyDescent="0.25">
       <c r="S45" t="s">
         <v>57</v>
       </c>
@@ -3800,7 +3808,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R46" t="s">
         <v>60</v>
       </c>
@@ -3829,7 +3837,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3847,117 +3855,116 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="12">
-        <f>AVERAGE(B3:B15)</f>
-        <v>36062.342937580564</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="12">
-        <v>19283.042118970367</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19283.042119999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="12">
-        <v>43709.823692218881</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>43709.823689999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="12">
-        <v>44248.4220525376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44248.422050000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="12">
-        <v>10540.776519765759</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19212.762709999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="12">
-        <v>11938.918689039821</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11938.91869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="12">
-        <v>50983.71612182937</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50983.716119999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="12">
-        <v>47726.863400003029</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47726.863400000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="12">
-        <v>48220.289169209609</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>48220.289169999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="12">
-        <v>37682.867713520049</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37682.867709999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="12">
-        <v>44827.8721002112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44827.872100000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="12">
-        <v>12139.814930199653</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12139.81493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="12">
-        <v>47419.574760442287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47419.574760000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="12">
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
     </row>
   </sheetData>
@@ -4117,31 +4124,31 @@
       </c>
       <c r="U2" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V2" s="11">
         <f>O2-U2</f>
-        <v>-48804.476920599649</v>
+        <v>-48804.476920000001</v>
       </c>
       <c r="W2" s="11">
         <f>P2-U2</f>
-        <v>-48804.476920599649</v>
+        <v>-48804.476920000001</v>
       </c>
       <c r="X2" s="11">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-48804.476920599649</v>
+        <v>-48804.476920000001</v>
       </c>
       <c r="Y2" s="11">
         <f>R2-$U2</f>
-        <v>-48948.476920599649</v>
+        <v>-48948.476920000001</v>
       </c>
       <c r="Z2" s="11">
         <f>S2-$U2</f>
-        <v>-48948.476920599649</v>
+        <v>-48948.476920000001</v>
       </c>
       <c r="AA2" s="11">
         <f>T2-$U2</f>
-        <v>-48948.476920599649</v>
+        <v>-48948.476920000001</v>
       </c>
       <c r="AB2" s="11">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -4149,27 +4156,27 @@
       </c>
       <c r="AC2" s="12">
         <f>V2*AB2</f>
-        <v>-48804.476920599649</v>
+        <v>-48804.476920000001</v>
       </c>
       <c r="AD2" s="12">
         <f>W2*AB2</f>
-        <v>-48804.476920599649</v>
+        <v>-48804.476920000001</v>
       </c>
       <c r="AE2" s="12">
         <f>X2*AB2</f>
-        <v>-48804.476920599649</v>
+        <v>-48804.476920000001</v>
       </c>
       <c r="AF2" s="12">
         <f>Y2*$AB2</f>
-        <v>-48948.476920599649</v>
+        <v>-48948.476920000001</v>
       </c>
       <c r="AG2" s="12">
         <f>Z2*$AB2</f>
-        <v>-48948.476920599649</v>
+        <v>-48948.476920000001</v>
       </c>
       <c r="AH2" s="12">
         <f>AA2*$AB2</f>
-        <v>-48948.476920599649</v>
+        <v>-48948.476920000001</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4219,31 +4226,31 @@
       </c>
       <c r="U3" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V3" s="11">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-48372.476920599649</v>
+        <v>-48372.476920000001</v>
       </c>
       <c r="W3" s="11">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-48288.476920599649</v>
+        <v>-48288.476920000001</v>
       </c>
       <c r="X3" s="11">
         <f t="shared" si="1"/>
-        <v>-47652.476920599649</v>
+        <v>-47652.476920000001</v>
       </c>
       <c r="Y3" s="11">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-48552.476920599649</v>
+        <v>-48552.476920000001</v>
       </c>
       <c r="Z3" s="11">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-48480.476920599649</v>
+        <v>-48480.476920000001</v>
       </c>
       <c r="AA3" s="11">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-47928.476920599649</v>
+        <v>-47928.476920000001</v>
       </c>
       <c r="AB3" s="11">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -4251,27 +4258,27 @@
       </c>
       <c r="AC3" s="12">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-43974.979018726954</v>
+        <v>-43974.979018181817</v>
       </c>
       <c r="AD3" s="12">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-43898.615382363314</v>
+        <v>-43898.615381818185</v>
       </c>
       <c r="AE3" s="12">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-43320.433564181498</v>
+        <v>-43320.433563636361</v>
       </c>
       <c r="AF3" s="12">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-44138.615382363314</v>
+        <v>-44138.615381818185</v>
       </c>
       <c r="AG3" s="12">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-44073.16083690877</v>
+        <v>-44073.160836363633</v>
       </c>
       <c r="AH3" s="12">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-43571.342655090586</v>
+        <v>-43571.342654545457</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4330,31 +4337,31 @@
       </c>
       <c r="U4" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V4" s="11">
         <f t="shared" si="8"/>
-        <v>-47736.476920599649</v>
+        <v>-47736.476920000001</v>
       </c>
       <c r="W4" s="11">
         <f t="shared" si="9"/>
-        <v>-47616.476920599649</v>
+        <v>-47616.476920000001</v>
       </c>
       <c r="X4" s="11">
         <f t="shared" si="1"/>
-        <v>-45444.476920599649</v>
+        <v>-45444.476920000001</v>
       </c>
       <c r="Y4" s="11">
         <f t="shared" si="10"/>
-        <v>-48000.476920599649</v>
+        <v>-48000.476920000001</v>
       </c>
       <c r="Z4" s="11">
         <f t="shared" si="11"/>
-        <v>-47892.476920599649</v>
+        <v>-47892.476920000001</v>
       </c>
       <c r="AA4" s="11">
         <f t="shared" si="12"/>
-        <v>-45936.476920599649</v>
+        <v>-45936.476920000001</v>
       </c>
       <c r="AB4" s="11">
         <f t="shared" si="13"/>
@@ -4362,27 +4369,27 @@
       </c>
       <c r="AC4" s="12">
         <f t="shared" si="14"/>
-        <v>-39451.633818677394</v>
+        <v>-39451.633818181814</v>
       </c>
       <c r="AD4" s="12">
         <f t="shared" si="15"/>
-        <v>-39352.460264958383</v>
+        <v>-39352.460264462803</v>
       </c>
       <c r="AE4" s="12">
         <f t="shared" si="16"/>
-        <v>-37557.418942644334</v>
+        <v>-37557.418942148754</v>
       </c>
       <c r="AF4" s="12">
         <f t="shared" si="17"/>
-        <v>-39669.81563685921</v>
+        <v>-39669.81563636363</v>
       </c>
       <c r="AG4" s="12">
         <f t="shared" si="18"/>
-        <v>-39580.5594385121</v>
+        <v>-39580.559438016528</v>
       </c>
       <c r="AH4" s="12">
         <f t="shared" si="19"/>
-        <v>-37964.03051289227</v>
+        <v>-37964.03051239669</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4442,31 +4449,31 @@
       </c>
       <c r="U5" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V5" s="11">
         <f t="shared" si="8"/>
-        <v>-46908.476920599649</v>
+        <v>-46908.476920000001</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="9"/>
-        <v>-46572.476920599649</v>
+        <v>-46572.476920000001</v>
       </c>
       <c r="X5" s="11">
         <f t="shared" si="1"/>
-        <v>-41052.476920599649</v>
+        <v>-41052.476920000001</v>
       </c>
       <c r="Y5" s="11">
         <f t="shared" si="10"/>
-        <v>-47244.476920599649</v>
+        <v>-47244.476920000001</v>
       </c>
       <c r="Z5" s="11">
         <f t="shared" si="11"/>
-        <v>-46932.476920599649</v>
+        <v>-46932.476920000001</v>
       </c>
       <c r="AA5" s="11">
         <f t="shared" si="12"/>
-        <v>-41976.476920599649</v>
+        <v>-41976.476920000001</v>
       </c>
       <c r="AB5" s="11">
         <f t="shared" si="13"/>
@@ -4474,27 +4481,27 @@
       </c>
       <c r="AC5" s="12">
         <f t="shared" si="14"/>
-        <v>-35243.03299819657</v>
+        <v>-35243.032997746042</v>
       </c>
       <c r="AD5" s="12">
         <f t="shared" si="15"/>
-        <v>-34990.591225093638</v>
+        <v>-34990.591224643118</v>
       </c>
       <c r="AE5" s="12">
         <f t="shared" si="16"/>
-        <v>-30843.333524116933</v>
+        <v>-30843.333523666406</v>
       </c>
       <c r="AF5" s="12">
         <f t="shared" si="17"/>
-        <v>-35495.474771299501</v>
+        <v>-35495.474770848974</v>
       </c>
       <c r="AG5" s="12">
         <f t="shared" si="18"/>
-        <v>-35261.064553418211</v>
+        <v>-35261.064552967684</v>
       </c>
       <c r="AH5" s="12">
         <f t="shared" si="19"/>
-        <v>-31537.54840014999</v>
+        <v>-31537.548399699466</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4554,31 +4561,31 @@
       </c>
       <c r="U6" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V6" s="11">
         <f t="shared" si="8"/>
-        <v>-45744.476920599649</v>
+        <v>-45744.476920000001</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="9"/>
-        <v>-45132.476920599649</v>
+        <v>-45132.476920000001</v>
       </c>
       <c r="X6" s="11">
         <f t="shared" si="1"/>
-        <v>-32556.476920599649</v>
+        <v>-32556.476920000001</v>
       </c>
       <c r="Y6" s="11">
         <f t="shared" si="10"/>
-        <v>-46212.476920599649</v>
+        <v>-46212.476920000001</v>
       </c>
       <c r="Z6" s="11">
         <f t="shared" si="11"/>
-        <v>-45648.476920599649</v>
+        <v>-45648.476920000001</v>
       </c>
       <c r="AA6" s="11">
         <f t="shared" si="12"/>
-        <v>-34320.476920599649</v>
+        <v>-34320.476920000001</v>
       </c>
       <c r="AB6" s="11">
         <f t="shared" si="13"/>
@@ -4586,27 +4593,27 @@
       </c>
       <c r="AC6" s="12">
         <f t="shared" si="14"/>
-        <v>-31244.093245406486</v>
+        <v>-31244.093244996919</v>
       </c>
       <c r="AD6" s="12">
         <f t="shared" si="15"/>
-        <v>-30826.089010723063</v>
+        <v>-30826.089010313495</v>
       </c>
       <c r="AE6" s="12">
         <f t="shared" si="16"/>
-        <v>-22236.511796051938</v>
+        <v>-22236.511795642371</v>
       </c>
       <c r="AF6" s="12">
         <f t="shared" si="17"/>
-        <v>-31563.743542517339</v>
+        <v>-31563.743542107772</v>
       </c>
       <c r="AG6" s="12">
         <f t="shared" si="18"/>
-        <v>-31178.523953691441</v>
+        <v>-31178.523953281874</v>
       </c>
       <c r="AH6" s="12">
         <f t="shared" si="19"/>
-        <v>-23441.347531315922</v>
+        <v>-23441.347530906354</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4666,31 +4673,31 @@
       </c>
       <c r="U7" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V7" s="11">
         <f t="shared" si="8"/>
-        <v>-44160.476920599649</v>
+        <v>-44160.476920000001</v>
       </c>
       <c r="W7" s="11">
         <f t="shared" si="9"/>
-        <v>-43092.476920599649</v>
+        <v>-43092.476920000001</v>
       </c>
       <c r="X7" s="11">
         <f t="shared" si="1"/>
-        <v>-16260.476920599649</v>
+        <v>-16260.476920000001</v>
       </c>
       <c r="Y7" s="11">
         <f t="shared" si="10"/>
-        <v>-44760.476920599649</v>
+        <v>-44760.476920000001</v>
       </c>
       <c r="Z7" s="11">
         <f t="shared" si="11"/>
-        <v>-43812.476920599649</v>
+        <v>-43812.476920000001</v>
       </c>
       <c r="AA7" s="11">
         <f t="shared" si="12"/>
-        <v>-19668.476920599649</v>
+        <v>-19668.476920000001</v>
       </c>
       <c r="AB7" s="11">
         <f t="shared" si="13"/>
@@ -4698,27 +4705,27 @@
       </c>
       <c r="AC7" s="12">
         <f t="shared" si="14"/>
-        <v>-27420.181756462011</v>
+        <v>-27420.181756089674</v>
       </c>
       <c r="AD7" s="12">
         <f t="shared" si="15"/>
-        <v>-26757.037783434833</v>
+        <v>-26757.037783062497</v>
       </c>
       <c r="AE7" s="12">
         <f t="shared" si="16"/>
-        <v>-10096.476843111588</v>
+        <v>-10096.476842739254</v>
       </c>
       <c r="AF7" s="12">
         <f t="shared" si="17"/>
-        <v>-27792.734550297504</v>
+        <v>-27792.734549925168</v>
       </c>
       <c r="AG7" s="12">
         <f t="shared" si="18"/>
-        <v>-27204.101136037425</v>
+        <v>-27204.101135665089</v>
       </c>
       <c r="AH7" s="12">
         <f t="shared" si="19"/>
-        <v>-12212.576712097187</v>
+        <v>-12212.576711724852</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4778,31 +4785,31 @@
       </c>
       <c r="U8" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V8" s="11">
         <f t="shared" si="8"/>
-        <v>-41976.476920599649</v>
+        <v>-41976.476920000001</v>
       </c>
       <c r="W8" s="11">
         <f t="shared" si="9"/>
-        <v>-40176.476920599649</v>
+        <v>-40176.476920000001</v>
       </c>
       <c r="X8" s="11">
         <f t="shared" si="1"/>
-        <v>13643.523079400351</v>
+        <v>13643.523079999999</v>
       </c>
       <c r="Y8" s="11">
         <f t="shared" si="10"/>
-        <v>-42828.476920599649</v>
+        <v>-42828.476920000001</v>
       </c>
       <c r="Z8" s="11">
         <f t="shared" si="11"/>
-        <v>-41172.476920599649</v>
+        <v>-41172.476920000001</v>
       </c>
       <c r="AA8" s="11">
         <f t="shared" si="12"/>
-        <v>7247.523079400351</v>
+        <v>7247.523079999999</v>
       </c>
       <c r="AB8" s="11">
         <f t="shared" si="13"/>
@@ -4810,27 +4817,27 @@
       </c>
       <c r="AC8" s="12">
         <f t="shared" si="14"/>
-        <v>-23694.626897182559</v>
+        <v>-23694.626896844075</v>
       </c>
       <c r="AD8" s="12">
         <f t="shared" si="15"/>
-        <v>-22678.573823085761</v>
+        <v>-22678.573822747276</v>
       </c>
       <c r="AE8" s="12">
         <f t="shared" si="16"/>
-        <v>7701.4130924085284</v>
+        <v>7701.4130927470142</v>
       </c>
       <c r="AF8" s="12">
         <f t="shared" si="17"/>
-        <v>-24175.558685588378</v>
+        <v>-24175.558685249893</v>
       </c>
       <c r="AG8" s="12">
         <f t="shared" si="18"/>
-        <v>-23240.789857419324</v>
+        <v>-23240.789857080836</v>
       </c>
       <c r="AH8" s="12">
         <f t="shared" si="19"/>
-        <v>4091.0378357845698</v>
+        <v>4091.0378361230555</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4889,31 +4896,31 @@
       </c>
       <c r="U9" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V9" s="11">
         <f t="shared" si="8"/>
-        <v>-39000.476920599649</v>
+        <v>-39000.476920000001</v>
       </c>
       <c r="W9" s="11">
         <f t="shared" si="9"/>
-        <v>-36072.476920599649</v>
+        <v>-36072.476920000001</v>
       </c>
       <c r="X9" s="11">
         <f t="shared" si="1"/>
-        <v>64451.523079400351</v>
+        <v>64451.523079999999</v>
       </c>
       <c r="Y9" s="11">
         <f t="shared" si="10"/>
-        <v>-40128.476920599649</v>
+        <v>-40128.476920000001</v>
       </c>
       <c r="Z9" s="11">
         <f t="shared" si="11"/>
-        <v>-37512.476920599649</v>
+        <v>-37512.476920000001</v>
       </c>
       <c r="AA9" s="11">
         <f t="shared" si="12"/>
-        <v>52979.523079400351</v>
+        <v>52979.523079999999</v>
       </c>
       <c r="AB9" s="11">
         <f t="shared" si="13"/>
@@ -4921,27 +4928,27 @@
       </c>
       <c r="AC9" s="12">
         <f t="shared" si="14"/>
-        <v>-20013.411346675013</v>
+        <v>-20013.411346367298</v>
       </c>
       <c r="AD9" s="12">
         <f t="shared" si="15"/>
-        <v>-18510.884376495505</v>
+        <v>-18510.884376187791</v>
       </c>
       <c r="AE9" s="12">
         <f t="shared" si="16"/>
-        <v>33073.822300528031</v>
+        <v>33073.822300835745</v>
       </c>
       <c r="AF9" s="12">
         <f t="shared" si="17"/>
-        <v>-20592.253704039249</v>
+        <v>-20592.253703731534</v>
       </c>
       <c r="AG9" s="12">
         <f t="shared" si="18"/>
-        <v>-19249.83206674772</v>
+        <v>-19249.832066440009</v>
       </c>
       <c r="AH9" s="12">
         <f t="shared" si="19"/>
-        <v>27186.872368185366</v>
+        <v>27186.872368493081</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5000,31 +5007,31 @@
       </c>
       <c r="U10" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V10" s="11">
         <f t="shared" si="8"/>
-        <v>-34944.476920599649</v>
+        <v>-34944.476920000001</v>
       </c>
       <c r="W10" s="11">
         <f t="shared" si="9"/>
-        <v>-30312.476920599649</v>
+        <v>-30312.476920000001</v>
       </c>
       <c r="X10" s="11">
         <f t="shared" si="1"/>
-        <v>138143.52307940036</v>
+        <v>138143.52308000001</v>
       </c>
       <c r="Y10" s="11">
         <f t="shared" si="10"/>
-        <v>-36480.476920599649</v>
+        <v>-36480.476920000001</v>
       </c>
       <c r="Z10" s="11">
         <f t="shared" si="11"/>
-        <v>-32328.476920599649</v>
+        <v>-32328.476920000001</v>
       </c>
       <c r="AA10" s="11">
         <f t="shared" si="12"/>
-        <v>119291.52307940036</v>
+        <v>119291.52308</v>
       </c>
       <c r="AB10" s="11">
         <f t="shared" si="13"/>
@@ -5032,27 +5039,27 @@
       </c>
       <c r="AC10" s="12">
         <f t="shared" si="14"/>
-        <v>-16301.856381028425</v>
+        <v>-16301.856380748684</v>
       </c>
       <c r="AD10" s="12">
         <f t="shared" si="15"/>
-        <v>-14140.994195896941</v>
+        <v>-14140.994195617201</v>
       </c>
       <c r="AE10" s="12">
         <f t="shared" si="16"/>
-        <v>64444.973044713872</v>
+        <v>64444.973044993611</v>
       </c>
       <c r="AF10" s="12">
         <f t="shared" si="17"/>
-        <v>-17018.411717030576</v>
+        <v>-17018.411716750834</v>
       </c>
       <c r="AG10" s="12">
         <f t="shared" si="18"/>
-        <v>-15081.473074399764</v>
+        <v>-15081.473074120024</v>
       </c>
       <c r="AH10" s="12">
         <f t="shared" si="19"/>
-        <v>55650.375912999982</v>
+        <v>55650.375913279713</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5111,31 +5118,31 @@
       </c>
       <c r="U11" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V11" s="11">
         <f t="shared" si="8"/>
-        <v>-29472.476920599649</v>
+        <v>-29472.476920000001</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="9"/>
-        <v>-22344.476920599649</v>
+        <v>-22344.476920000001</v>
       </c>
       <c r="X11" s="11">
         <f t="shared" si="1"/>
-        <v>216887.52307940036</v>
+        <v>216887.52308000001</v>
       </c>
       <c r="Y11" s="11">
         <f t="shared" si="10"/>
-        <v>-31560.476920599649</v>
+        <v>-31560.476920000001</v>
       </c>
       <c r="Z11" s="11">
         <f t="shared" si="11"/>
-        <v>-25152.476920599649</v>
+        <v>-25152.476920000001</v>
       </c>
       <c r="AA11" s="11">
         <f t="shared" si="12"/>
-        <v>190175.52307940036</v>
+        <v>190175.52308000001</v>
       </c>
       <c r="AB11" s="11">
         <f t="shared" si="13"/>
@@ -5143,27 +5150,27 @@
       </c>
       <c r="AC11" s="12">
         <f t="shared" si="14"/>
-        <v>-12499.207269564333</v>
+        <v>-12499.207269310022</v>
       </c>
       <c r="AD11" s="12">
         <f t="shared" si="15"/>
-        <v>-9476.2394458052604</v>
+        <v>-9476.2394455509511</v>
       </c>
       <c r="AE11" s="12">
         <f t="shared" si="16"/>
-        <v>91981.481992680987</v>
+        <v>91981.481992935311</v>
       </c>
       <c r="AF11" s="12">
         <f t="shared" si="17"/>
-        <v>-13384.72309672608</v>
+        <v>-13384.723096471771</v>
       </c>
       <c r="AG11" s="12">
         <f t="shared" si="18"/>
-        <v>-10667.105558195199</v>
+        <v>-10667.105557940889</v>
       </c>
       <c r="AH11" s="12">
         <f t="shared" si="19"/>
-        <v>80652.986410715181</v>
+        <v>80652.98641096949</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5223,31 +5230,31 @@
       </c>
       <c r="U12" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V12" s="11">
         <f t="shared" si="8"/>
-        <v>-22128.476920599649</v>
+        <v>-22128.476920000001</v>
       </c>
       <c r="W12" s="11">
         <f t="shared" si="9"/>
-        <v>-11508.476920599649</v>
+        <v>-11508.476920000001</v>
       </c>
       <c r="X12" s="11">
         <f t="shared" si="1"/>
-        <v>264167.52307940036</v>
+        <v>264167.52308000001</v>
       </c>
       <c r="Y12" s="11">
         <f t="shared" si="10"/>
-        <v>-24960.476920599649</v>
+        <v>-24960.476920000001</v>
       </c>
       <c r="Z12" s="11">
         <f t="shared" si="11"/>
-        <v>-15384.476920599649</v>
+        <v>-15384.476920000001</v>
       </c>
       <c r="AA12" s="11">
         <f t="shared" si="12"/>
-        <v>232727.52307940036</v>
+        <v>232727.52308000001</v>
       </c>
       <c r="AB12" s="11">
         <f t="shared" si="13"/>
@@ -5255,27 +5262,27 @@
       </c>
       <c r="AC12" s="12">
         <f t="shared" si="14"/>
-        <v>-8531.4857820334582</v>
+        <v>-8531.4857818022683</v>
       </c>
       <c r="AD12" s="12">
         <f t="shared" si="15"/>
-        <v>-4437.0160482918336</v>
+        <v>-4437.0160480606437</v>
       </c>
       <c r="AE12" s="12">
         <f t="shared" si="16"/>
-        <v>101848.01580848369</v>
+        <v>101848.01580871489</v>
       </c>
       <c r="AF12" s="12">
         <f t="shared" si="17"/>
-        <v>-9623.3443776978911</v>
+        <v>-9623.3443774667012</v>
       </c>
       <c r="AG12" s="12">
         <f t="shared" si="18"/>
-        <v>-5931.3818381206975</v>
+        <v>-5931.3818378895076</v>
       </c>
       <c r="AH12" s="12">
         <f t="shared" si="19"/>
-        <v>89726.534788819219</v>
+        <v>89726.534789050405</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5334,31 +5341,31 @@
       </c>
       <c r="U13" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V13" s="11">
         <f t="shared" si="8"/>
-        <v>-12480.476920599649</v>
+        <v>-12480.476920000001</v>
       </c>
       <c r="W13" s="11">
         <f t="shared" si="9"/>
-        <v>3083.523079400351</v>
+        <v>3083.523079999999</v>
       </c>
       <c r="X13" s="11">
         <f t="shared" si="1"/>
-        <v>274307.52307940036</v>
+        <v>274307.52308000001</v>
       </c>
       <c r="Y13" s="11">
         <f t="shared" si="10"/>
-        <v>-16272.476920599649</v>
+        <v>-16272.476920000001</v>
       </c>
       <c r="Z13" s="11">
         <f t="shared" si="11"/>
-        <v>-2268.476920599649</v>
+        <v>-2268.476920000001</v>
       </c>
       <c r="AA13" s="11">
         <f t="shared" si="12"/>
-        <v>241859.52307940036</v>
+        <v>241859.52308000001</v>
       </c>
       <c r="AB13" s="11">
         <f t="shared" si="13"/>
@@ -5366,27 +5373,27 @@
       </c>
       <c r="AC13" s="12">
         <f t="shared" si="14"/>
-        <v>-4374.3310232884887</v>
+        <v>-4374.3310230783154</v>
       </c>
       <c r="AD13" s="12">
         <f t="shared" si="15"/>
-        <v>1080.7560282398995</v>
+        <v>1080.7560284500726</v>
       </c>
       <c r="AE13" s="12">
         <f t="shared" si="16"/>
-        <v>96143.113421181028</v>
+        <v>96143.113421391201</v>
       </c>
       <c r="AF13" s="12">
         <f t="shared" si="17"/>
-        <v>-5703.4038901219283</v>
+        <v>-5703.403889911755</v>
       </c>
       <c r="AG13" s="12">
         <f t="shared" si="18"/>
-        <v>-795.08732178451146</v>
+        <v>-795.08732157433849</v>
       </c>
       <c r="AH13" s="12">
         <f t="shared" si="19"/>
-        <v>84770.287370808801</v>
+        <v>84770.287371018989</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5445,31 +5452,31 @@
       </c>
       <c r="U14" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V14" s="11">
         <f t="shared" si="8"/>
-        <v>143.52307940035098</v>
+        <v>143.52307999999903</v>
       </c>
       <c r="W14" s="11">
         <f t="shared" si="9"/>
-        <v>22127.523079400351</v>
+        <v>22127.523079999999</v>
       </c>
       <c r="X14" s="11">
         <f t="shared" si="1"/>
-        <v>274763.52307940036</v>
+        <v>274763.52308000001</v>
       </c>
       <c r="Y14" s="11">
         <f t="shared" si="10"/>
-        <v>-4896.476920599649</v>
+        <v>-4896.476920000001</v>
       </c>
       <c r="Z14" s="11">
         <f t="shared" si="11"/>
-        <v>14891.523079400351</v>
+        <v>14891.523079999999</v>
       </c>
       <c r="AA14" s="11">
         <f t="shared" si="12"/>
-        <v>242243.52307940036</v>
+        <v>242243.52308000001</v>
       </c>
       <c r="AB14" s="11">
         <f t="shared" si="13"/>
@@ -5477,27 +5484,27 @@
       </c>
       <c r="AC14" s="12">
         <f t="shared" si="14"/>
-        <v>45.730876149642263</v>
+        <v>45.730876340708612</v>
       </c>
       <c r="AD14" s="12">
         <f t="shared" si="15"/>
-        <v>7050.5107726941205</v>
+        <v>7050.5107728851872</v>
       </c>
       <c r="AE14" s="12">
         <f t="shared" si="16"/>
-        <v>87548.126035767767</v>
+        <v>87548.126035958834</v>
       </c>
       <c r="AF14" s="12">
         <f t="shared" si="17"/>
-        <v>-1560.1684451105548</v>
+        <v>-1560.1684449194884</v>
       </c>
       <c r="AG14" s="12">
         <f t="shared" si="18"/>
-        <v>4744.8981757419806</v>
+        <v>4744.8981759330472</v>
       </c>
       <c r="AH14" s="12">
         <f t="shared" si="19"/>
-        <v>77186.251843826962</v>
+        <v>77186.251844018043</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5556,31 +5563,31 @@
       </c>
       <c r="U15" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V15" s="11">
         <f t="shared" si="8"/>
-        <v>16223.523079400351</v>
+        <v>16223.523079999999</v>
       </c>
       <c r="W15" s="11">
         <f t="shared" si="9"/>
-        <v>46247.523079400351</v>
+        <v>46247.523079999999</v>
       </c>
       <c r="X15" s="11">
         <f t="shared" si="1"/>
-        <v>274847.52307940036</v>
+        <v>274847.52308000001</v>
       </c>
       <c r="Y15" s="11">
         <f t="shared" si="10"/>
-        <v>9587.523079400351</v>
+        <v>9587.523079999999</v>
       </c>
       <c r="Z15" s="11">
         <f t="shared" si="11"/>
-        <v>36587.523079400351</v>
+        <v>36587.523079999999</v>
       </c>
       <c r="AA15" s="11">
         <f t="shared" si="12"/>
-        <v>242327.52307940036</v>
+        <v>242327.52308000001</v>
       </c>
       <c r="AB15" s="11">
         <f t="shared" si="13"/>
@@ -5588,27 +5595,27 @@
       </c>
       <c r="AC15" s="12">
         <f t="shared" si="14"/>
-        <v>4699.3767499383421</v>
+        <v>4699.3767501120383</v>
       </c>
       <c r="AD15" s="12">
         <f t="shared" si="15"/>
-        <v>13396.260087152656</v>
+        <v>13396.260087326353</v>
       </c>
       <c r="AE15" s="12">
         <f t="shared" si="16"/>
-        <v>79613.537294959489</v>
+        <v>79613.537295133181</v>
       </c>
       <c r="AF15" s="12">
         <f t="shared" si="17"/>
-        <v>2777.1639260056818</v>
+        <v>2777.1639261793784</v>
       </c>
       <c r="AG15" s="12">
         <f t="shared" si="18"/>
-        <v>10598.102178896252</v>
+        <v>10598.102179069949</v>
       </c>
       <c r="AH15" s="12">
         <f t="shared" si="19"/>
-        <v>70193.6516659224</v>
+        <v>70193.651666096106</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5667,31 +5674,31 @@
       </c>
       <c r="U16" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V16" s="11">
         <f t="shared" si="8"/>
-        <v>36215.523079400351</v>
+        <v>36215.523079999999</v>
       </c>
       <c r="W16" s="11">
         <f t="shared" si="9"/>
-        <v>75275.523079400358</v>
+        <v>75275.523079999999</v>
       </c>
       <c r="X16" s="11">
         <f t="shared" si="1"/>
-        <v>274883.52307940036</v>
+        <v>274883.52308000001</v>
       </c>
       <c r="Y16" s="11">
         <f t="shared" si="10"/>
-        <v>27551.523079400351</v>
+        <v>27551.523079999999</v>
       </c>
       <c r="Z16" s="11">
         <f t="shared" si="11"/>
-        <v>62699.523079400351</v>
+        <v>62699.523079999999</v>
       </c>
       <c r="AA16" s="11">
         <f t="shared" si="12"/>
-        <v>242351.52307940036</v>
+        <v>242351.52308000001</v>
       </c>
       <c r="AB16" s="11">
         <f t="shared" si="13"/>
@@ -5699,27 +5706,27 @@
       </c>
       <c r="AC16" s="12">
         <f t="shared" si="14"/>
-        <v>9536.6791178492731</v>
+        <v>9536.6791180071796</v>
       </c>
       <c r="AD16" s="12">
         <f t="shared" si="15"/>
-        <v>19822.397911044751</v>
+        <v>19822.397911202654</v>
       </c>
       <c r="AE16" s="12">
         <f t="shared" si="16"/>
-        <v>72385.422920572717</v>
+        <v>72385.42292073062</v>
       </c>
       <c r="AF16" s="12">
         <f t="shared" si="17"/>
-        <v>7255.1771305413986</v>
+        <v>7255.1771306993051</v>
       </c>
       <c r="AG16" s="12">
         <f t="shared" si="18"/>
-        <v>16510.74405689149</v>
+        <v>16510.744057049396</v>
       </c>
       <c r="AH16" s="12">
         <f t="shared" si="19"/>
-        <v>63818.730555487324</v>
+        <v>63818.730555645234</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5778,31 +5785,31 @@
       </c>
       <c r="U17" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V17" s="11">
         <f t="shared" si="8"/>
-        <v>60251.523079400351</v>
+        <v>60251.523079999999</v>
       </c>
       <c r="W17" s="11">
         <f t="shared" si="9"/>
-        <v>108299.52307940036</v>
+        <v>108299.52308</v>
       </c>
       <c r="X17" s="11">
         <f t="shared" si="1"/>
-        <v>274907.52307940036</v>
+        <v>274907.52308000001</v>
       </c>
       <c r="Y17" s="11">
         <f t="shared" si="10"/>
-        <v>49187.523079400351</v>
+        <v>49187.523079999999</v>
       </c>
       <c r="Z17" s="11">
         <f t="shared" si="11"/>
-        <v>92459.523079400358</v>
+        <v>92459.523079999999</v>
       </c>
       <c r="AA17" s="11">
         <f t="shared" si="12"/>
-        <v>242375.52307940036</v>
+        <v>242375.52308000001</v>
       </c>
       <c r="AB17" s="11">
         <f t="shared" si="13"/>
@@ -5810,27 +5817,27 @@
       </c>
       <c r="AC17" s="12">
         <f t="shared" si="14"/>
-        <v>14423.735587591096</v>
+        <v>14423.735587734647</v>
       </c>
       <c r="AD17" s="12">
         <f t="shared" si="15"/>
-        <v>25926.044775680661</v>
+        <v>25926.044775824208</v>
       </c>
       <c r="AE17" s="12">
         <f t="shared" si="16"/>
-        <v>65810.675336978238</v>
+        <v>65810.675337121793</v>
       </c>
       <c r="AF17" s="12">
         <f t="shared" si="17"/>
-        <v>11775.101953370673</v>
+        <v>11775.101953514224</v>
       </c>
       <c r="AG17" s="12">
         <f t="shared" si="18"/>
-        <v>22134.074713673112</v>
+        <v>22134.074713816663</v>
       </c>
       <c r="AH17" s="12">
         <f t="shared" si="19"/>
-        <v>58022.773186900609</v>
+        <v>58022.773187044164</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5889,31 +5896,31 @@
       </c>
       <c r="U18" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V18" s="11">
         <f t="shared" si="8"/>
-        <v>87899.523079400358</v>
+        <v>87899.523079999999</v>
       </c>
       <c r="W18" s="11">
         <f t="shared" si="9"/>
-        <v>143159.52307940036</v>
+        <v>143159.52308000001</v>
       </c>
       <c r="X18" s="11">
         <f t="shared" si="1"/>
-        <v>274919.52307940036</v>
+        <v>274919.52308000001</v>
       </c>
       <c r="Y18" s="11">
         <f t="shared" si="10"/>
-        <v>74075.523079400358</v>
+        <v>74075.523079999999</v>
       </c>
       <c r="Z18" s="11">
         <f t="shared" si="11"/>
-        <v>123827.52307940036</v>
+        <v>123827.52308</v>
       </c>
       <c r="AA18" s="11">
         <f t="shared" si="12"/>
-        <v>242387.52307940036</v>
+        <v>242387.52308000001</v>
       </c>
       <c r="AB18" s="11">
         <f t="shared" si="13"/>
@@ -5921,27 +5928,27 @@
       </c>
       <c r="AC18" s="12">
         <f t="shared" si="14"/>
-        <v>19129.497244136117</v>
+        <v>19129.497244266615</v>
       </c>
       <c r="AD18" s="12">
         <f t="shared" si="15"/>
-        <v>31155.683287899723</v>
+        <v>31155.683288030225</v>
       </c>
       <c r="AE18" s="12">
         <f t="shared" si="16"/>
-        <v>59830.498219609697</v>
+        <v>59830.498219740199</v>
       </c>
       <c r="AF18" s="12">
         <f t="shared" si="17"/>
-        <v>16120.992070973101</v>
+        <v>16120.992071103601</v>
       </c>
       <c r="AG18" s="12">
         <f t="shared" si="18"/>
-        <v>26948.476834804573</v>
+        <v>26948.476834935071</v>
       </c>
       <c r="AH18" s="12">
         <f t="shared" si="19"/>
-        <v>52750.587174084583</v>
+        <v>52750.587174215085</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5991,31 +5998,31 @@
       </c>
       <c r="U19" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V19" s="11">
         <f t="shared" si="8"/>
-        <v>117983.52307940036</v>
+        <v>117983.52308</v>
       </c>
       <c r="W19" s="11">
         <f t="shared" si="9"/>
-        <v>176759.52307940036</v>
+        <v>176759.52308000001</v>
       </c>
       <c r="X19" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>274931.52308000001</v>
       </c>
       <c r="Y19" s="11">
         <f t="shared" si="10"/>
-        <v>101171.52307940036</v>
+        <v>101171.52308</v>
       </c>
       <c r="Z19" s="11">
         <f t="shared" si="11"/>
-        <v>154031.52307940036</v>
+        <v>154031.52308000001</v>
       </c>
       <c r="AA19" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>242399.52308000001</v>
       </c>
       <c r="AB19" s="11">
         <f t="shared" si="13"/>
@@ -6023,27 +6030,27 @@
       </c>
       <c r="AC19" s="12">
         <f t="shared" si="14"/>
-        <v>23342.411059315404</v>
+        <v>23342.411059434038</v>
       </c>
       <c r="AD19" s="12">
         <f t="shared" si="15"/>
-        <v>34970.92931858974</v>
+        <v>34970.929318708375</v>
       </c>
       <c r="AE19" s="12">
         <f t="shared" si="16"/>
-        <v>54393.736153853795</v>
+        <v>54393.73615397243</v>
       </c>
       <c r="AF19" s="12">
         <f t="shared" si="17"/>
-        <v>20016.246485766333</v>
+        <v>20016.246485884967</v>
       </c>
       <c r="AG19" s="12">
         <f t="shared" si="18"/>
-        <v>30474.31568382747</v>
+        <v>30474.315683946108</v>
       </c>
       <c r="AH19" s="12">
         <f t="shared" si="19"/>
-        <v>47957.453385194603</v>
+        <v>47957.453385313238</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -6093,31 +6100,31 @@
       </c>
       <c r="U20" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V20" s="11">
         <f t="shared" si="8"/>
-        <v>148739.52307940036</v>
+        <v>148739.52308000001</v>
       </c>
       <c r="W20" s="11">
         <f t="shared" si="9"/>
-        <v>206135.52307940036</v>
+        <v>206135.52308000001</v>
       </c>
       <c r="X20" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>274931.52308000001</v>
       </c>
       <c r="Y20" s="11">
         <f t="shared" si="10"/>
-        <v>128843.52307940036</v>
+        <v>128843.52308</v>
       </c>
       <c r="Z20" s="11">
         <f t="shared" si="11"/>
-        <v>180479.52307940036</v>
+        <v>180479.52308000001</v>
       </c>
       <c r="AA20" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>242399.52308000001</v>
       </c>
       <c r="AB20" s="11">
         <f t="shared" si="13"/>
@@ -6125,27 +6132,27 @@
       </c>
       <c r="AC20" s="12">
         <f t="shared" si="14"/>
-        <v>26752.110632734504</v>
+        <v>26752.110632842356</v>
       </c>
       <c r="AD20" s="12">
         <f t="shared" si="15"/>
-        <v>37075.285738363731</v>
+        <v>37075.285738471583</v>
       </c>
       <c r="AE20" s="12">
         <f t="shared" si="16"/>
-        <v>49448.851048957993</v>
+        <v>49448.851049065845</v>
       </c>
       <c r="AF20" s="12">
         <f t="shared" si="17"/>
-        <v>23173.640148700786</v>
+        <v>23173.640148808638</v>
       </c>
       <c r="AG20" s="12">
         <f t="shared" si="18"/>
-        <v>32460.828624452944</v>
+        <v>32460.828624560796</v>
       </c>
       <c r="AH20" s="12">
         <f t="shared" si="19"/>
-        <v>43597.68489563145</v>
+        <v>43597.684895739309</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -6195,31 +6202,31 @@
       </c>
       <c r="U21" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V21" s="11">
         <f t="shared" si="8"/>
-        <v>177995.52307940036</v>
+        <v>177995.52308000001</v>
       </c>
       <c r="W21" s="11">
         <f t="shared" si="9"/>
-        <v>229391.52307940036</v>
+        <v>229391.52308000001</v>
       </c>
       <c r="X21" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>274931.52308000001</v>
       </c>
       <c r="Y21" s="11">
         <f t="shared" si="10"/>
-        <v>155171.52307940036</v>
+        <v>155171.52308000001</v>
       </c>
       <c r="Z21" s="11">
         <f t="shared" si="11"/>
-        <v>201443.52307940036</v>
+        <v>201443.52308000001</v>
       </c>
       <c r="AA21" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>242399.52308000001</v>
       </c>
       <c r="AB21" s="11">
         <f t="shared" si="13"/>
@@ -6227,27 +6234,27 @@
       </c>
       <c r="AC21" s="12">
         <f t="shared" si="14"/>
-        <v>29103.690354834955</v>
+        <v>29103.690354933002</v>
       </c>
       <c r="AD21" s="12">
         <f t="shared" si="15"/>
-        <v>37507.347051356715</v>
+        <v>37507.347051454766</v>
       </c>
       <c r="AE21" s="12">
         <f t="shared" si="16"/>
-        <v>44953.500953598159</v>
+        <v>44953.50095369621</v>
       </c>
       <c r="AF21" s="12">
         <f t="shared" si="17"/>
-        <v>25371.7839722096</v>
+        <v>25371.783972307647</v>
       </c>
       <c r="AG21" s="12">
         <f t="shared" si="18"/>
-        <v>32937.625723736084</v>
+        <v>32937.625723834128</v>
       </c>
       <c r="AH21" s="12">
         <f t="shared" si="19"/>
-        <v>39634.258996028584</v>
+        <v>39634.258996126635</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -6297,31 +6304,31 @@
       </c>
       <c r="U22" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V22" s="11">
         <f t="shared" si="8"/>
-        <v>203783.52307940036</v>
+        <v>203783.52308000001</v>
       </c>
       <c r="W22" s="11">
         <f t="shared" si="9"/>
-        <v>246191.52307940036</v>
+        <v>246191.52308000001</v>
       </c>
       <c r="X22" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>274931.52308000001</v>
       </c>
       <c r="Y22" s="11">
         <f t="shared" si="10"/>
-        <v>178391.52307940036</v>
+        <v>178391.52308000001</v>
       </c>
       <c r="Z22" s="11">
         <f t="shared" si="11"/>
-        <v>216539.52307940036</v>
+        <v>216539.52308000001</v>
       </c>
       <c r="AA22" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>242399.52308000001</v>
       </c>
       <c r="AB22" s="11">
         <f t="shared" si="13"/>
@@ -6329,27 +6336,27 @@
       </c>
       <c r="AC22" s="12">
         <f t="shared" si="14"/>
-        <v>30291.122202063849</v>
+        <v>30291.122202152983</v>
       </c>
       <c r="AD22" s="12">
         <f t="shared" si="15"/>
-        <v>36594.801179311726</v>
+        <v>36594.801179400856</v>
       </c>
       <c r="AE22" s="12">
         <f t="shared" si="16"/>
-        <v>40866.819048725607</v>
+        <v>40866.819048814745</v>
       </c>
       <c r="AF22" s="12">
         <f t="shared" si="17"/>
-        <v>26516.763199274796</v>
+        <v>26516.76319936393</v>
       </c>
       <c r="AG22" s="12">
         <f t="shared" si="18"/>
-        <v>32187.220321139823</v>
+        <v>32187.220321228957</v>
       </c>
       <c r="AH22" s="12">
         <f t="shared" si="19"/>
-        <v>36031.144541844173</v>
+        <v>36031.14454193331</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -6623,7 +6630,7 @@
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
     </row>
-    <row r="36" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2025</v>
       </c>
@@ -6652,7 +6659,7 @@
         <v>7008</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2026</v>
       </c>
@@ -6681,7 +6688,7 @@
         <v>11517</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2027</v>
       </c>
@@ -6710,7 +6717,7 @@
         <v>16335</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2028</v>
       </c>
@@ -6739,7 +6746,7 @@
         <v>19227</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2029</v>
       </c>
@@ -6768,7 +6775,7 @@
         <v>19847</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2030</v>
       </c>
@@ -6797,7 +6804,7 @@
         <v>19876</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2031</v>
       </c>
@@ -6826,7 +6833,7 @@
         <v>19880</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2032</v>
       </c>
@@ -6855,7 +6862,7 @@
         <v>19882</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2033</v>
       </c>
@@ -6884,7 +6891,7 @@
         <v>19884</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2034</v>
       </c>
@@ -6913,7 +6920,7 @@
         <v>19885</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2035</v>
       </c>
@@ -7755,7 +7762,7 @@
       </c>
       <c r="C2">
         <f>CAPEX!$X3</f>
-        <v>377226.75237167848</v>
+        <v>336071.45736119698</v>
       </c>
       <c r="D2">
         <f>CAPEX!$X4</f>
@@ -7767,7 +7774,7 @@
       </c>
       <c r="F2">
         <f>CAPEX!$X6</f>
-        <v>270017.46299989591</v>
+        <v>294197.46299989591</v>
       </c>
       <c r="G2">
         <f>CAPEX!$X7</f>
@@ -7775,7 +7782,7 @@
       </c>
       <c r="H2">
         <f>CAPEX!$X8</f>
-        <v>166446.75237167845</v>
+        <v>374091.45736119698</v>
       </c>
       <c r="I2">
         <f>CAPEX!$X9</f>
@@ -7795,7 +7802,7 @@
       </c>
       <c r="M2">
         <f>CAPEX!$X13</f>
-        <v>298246.6077070738</v>
+        <v>247370.15382193681</v>
       </c>
       <c r="N2">
         <f>CAPEX!$X14</f>
@@ -7803,7 +7810,7 @@
       </c>
       <c r="O2">
         <f>CAPEX!$X15</f>
-        <v>159383.92770707383</v>
+        <v>157173.13936804034</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -7923,7 +7930,7 @@
       </c>
       <c r="F5">
         <f>F2-E2</f>
-        <v>134999.99999999997</v>
+        <v>159179.99999999997</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -8069,14 +8076,14 @@
       </c>
       <c r="G8">
         <f>IF(G2-H2&gt;0,G2-H2,0)</f>
-        <v>138040.30850926708</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
         <f>IF(I2-H2&gt;0,I2-H2,0)</f>
-        <v>3067.3085092670808</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -8163,7 +8170,7 @@
       </c>
       <c r="F10">
         <f>F2-J2</f>
-        <v>129929.99999999997</v>
+        <v>154109.99999999997</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -8233,7 +8240,7 @@
       </c>
       <c r="M11">
         <f>M2-K2</f>
-        <v>62431.774153454346</v>
+        <v>11555.320268317359</v>
       </c>
       <c r="N11">
         <f>N2-K2</f>
@@ -8282,7 +8289,7 @@
       </c>
       <c r="M12">
         <f>M2-L2</f>
-        <v>129212.67999999996</v>
+        <v>78336.226114862977</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -8377,7 +8384,7 @@
       </c>
       <c r="M14">
         <f>M2-N2</f>
-        <v>47281.774153454346</v>
+        <v>-3594.6797316826414</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -8426,7 +8433,7 @@
       </c>
       <c r="M15">
         <f>M2-O2</f>
-        <v>138862.67999999996</v>
+        <v>90197.014453896467</v>
       </c>
       <c r="N15">
         <v>0</v>

--- a/tumlknexpectimax/excel_data/input_data_its_munich_phillipson.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_its_munich_phillipson.xlsx
@@ -782,7 +782,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1266,11 +1265,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="175605248"/>
-        <c:axId val="176268416"/>
+        <c:axId val="180753920"/>
+        <c:axId val="180257920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="175605248"/>
+        <c:axId val="180753920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1292,14 +1291,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176268416"/>
+        <c:crossAx val="180257920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1307,7 +1305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176268416"/>
+        <c:axId val="180257920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1330,21 +1328,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175605248"/>
+        <c:crossAx val="180753920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1389,7 +1385,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1873,11 +1868,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="176316416"/>
-        <c:axId val="176270720"/>
+        <c:axId val="180755968"/>
+        <c:axId val="180259648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="176316416"/>
+        <c:axId val="180755968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1899,14 +1894,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176270720"/>
+        <c:crossAx val="180259648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1914,7 +1908,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176270720"/>
+        <c:axId val="180259648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1937,21 +1931,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176316416"/>
+        <c:crossAx val="180755968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2078,46 +2070,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>10000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19283.042119999998</c:v>
+                  <c:v>3.4104788257342502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43709.823689999997</c:v>
+                  <c:v>4.3728838415082709</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44248.422050000001</c:v>
+                  <c:v>4.590058257768959</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19212.762709999999</c:v>
+                  <c:v>3.5645668399812402</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11938.91869</c:v>
+                  <c:v>3.4895950881818525</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50983.716119999997</c:v>
+                  <c:v>5.0622354699274767</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47726.863400000002</c:v>
+                  <c:v>5.2097123546059274</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48220.289169999996</c:v>
+                  <c:v>5.8339957529095674</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37682.867709999999</c:v>
+                  <c:v>4.8658194688768006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44827.872100000001</c:v>
+                  <c:v>3.6204591866240001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12139.81493</c:v>
+                  <c:v>4.1684192327679996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47419.574760000003</c:v>
+                  <c:v>5.7307241761280014</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50088.476920000001</c:v>
+                  <c:v>4.4817390217599993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2137,11 +2129,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="176320000"/>
-        <c:axId val="176273024"/>
+        <c:axId val="179617792"/>
+        <c:axId val="180261952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="176320000"/>
+        <c:axId val="179617792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2151,7 +2143,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176273024"/>
+        <c:crossAx val="180261952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2159,7 +2151,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176273024"/>
+        <c:axId val="180261952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2189,7 +2181,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176320000"/>
+        <c:crossAx val="179617792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2226,7 +2218,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2262,7 +2254,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,7 +2297,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3837,7 +3829,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3860,7 +3852,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="12">
-        <v>10000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3868,7 +3860,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="12">
-        <v>19283.042119999998</v>
+        <v>3.4104788257342502</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3876,7 +3868,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="12">
-        <v>43709.823689999997</v>
+        <v>4.3728838415082709</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3884,7 +3876,7 @@
         <v>67</v>
       </c>
       <c r="B5" s="12">
-        <v>44248.422050000001</v>
+        <v>4.590058257768959</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3892,7 +3884,7 @@
         <v>68</v>
       </c>
       <c r="B6" s="12">
-        <v>19212.762709999999</v>
+        <v>3.5645668399812402</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3900,7 +3892,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="12">
-        <v>11938.91869</v>
+        <v>3.4895950881818525</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3908,7 +3900,7 @@
         <v>70</v>
       </c>
       <c r="B8" s="12">
-        <v>50983.716119999997</v>
+        <v>5.0622354699274767</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3916,7 +3908,7 @@
         <v>71</v>
       </c>
       <c r="B9" s="12">
-        <v>47726.863400000002</v>
+        <v>5.2097123546059274</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3924,7 +3916,7 @@
         <v>72</v>
       </c>
       <c r="B10" s="12">
-        <v>48220.289169999996</v>
+        <v>5.8339957529095674</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3932,7 +3924,7 @@
         <v>74</v>
       </c>
       <c r="B11" s="12">
-        <v>37682.867709999999</v>
+        <v>4.8658194688768006</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3940,7 +3932,7 @@
         <v>75</v>
       </c>
       <c r="B12" s="12">
-        <v>44827.872100000001</v>
+        <v>3.6204591866240001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3948,7 +3940,7 @@
         <v>76</v>
       </c>
       <c r="B13" s="12">
-        <v>12139.81493</v>
+        <v>4.1684192327679996</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3956,7 +3948,7 @@
         <v>77</v>
       </c>
       <c r="B14" s="12">
-        <v>47419.574760000003</v>
+        <v>5.7307241761280014</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3964,7 +3956,7 @@
         <v>78</v>
       </c>
       <c r="B15" s="12">
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
     </row>
   </sheetData>
@@ -4124,31 +4116,31 @@
       </c>
       <c r="U2" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V2" s="11">
         <f>O2-U2</f>
-        <v>-48804.476920000001</v>
+        <v>1279.5182609782401</v>
       </c>
       <c r="W2" s="11">
         <f>P2-U2</f>
-        <v>-48804.476920000001</v>
+        <v>1279.5182609782401</v>
       </c>
       <c r="X2" s="11">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-48804.476920000001</v>
+        <v>1279.5182609782401</v>
       </c>
       <c r="Y2" s="11">
         <f>R2-$U2</f>
-        <v>-48948.476920000001</v>
+        <v>1135.5182609782401</v>
       </c>
       <c r="Z2" s="11">
         <f>S2-$U2</f>
-        <v>-48948.476920000001</v>
+        <v>1135.5182609782401</v>
       </c>
       <c r="AA2" s="11">
         <f>T2-$U2</f>
-        <v>-48948.476920000001</v>
+        <v>1135.5182609782401</v>
       </c>
       <c r="AB2" s="11">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -4156,27 +4148,27 @@
       </c>
       <c r="AC2" s="12">
         <f>V2*AB2</f>
-        <v>-48804.476920000001</v>
+        <v>1279.5182609782401</v>
       </c>
       <c r="AD2" s="12">
         <f>W2*AB2</f>
-        <v>-48804.476920000001</v>
+        <v>1279.5182609782401</v>
       </c>
       <c r="AE2" s="12">
         <f>X2*AB2</f>
-        <v>-48804.476920000001</v>
+        <v>1279.5182609782401</v>
       </c>
       <c r="AF2" s="12">
         <f>Y2*$AB2</f>
-        <v>-48948.476920000001</v>
+        <v>1135.5182609782401</v>
       </c>
       <c r="AG2" s="12">
         <f>Z2*$AB2</f>
-        <v>-48948.476920000001</v>
+        <v>1135.5182609782401</v>
       </c>
       <c r="AH2" s="12">
         <f>AA2*$AB2</f>
-        <v>-48948.476920000001</v>
+        <v>1135.5182609782401</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4226,31 +4218,31 @@
       </c>
       <c r="U3" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V3" s="11">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-48372.476920000001</v>
+        <v>1711.5182609782401</v>
       </c>
       <c r="W3" s="11">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-48288.476920000001</v>
+        <v>1795.5182609782401</v>
       </c>
       <c r="X3" s="11">
         <f t="shared" si="1"/>
-        <v>-47652.476920000001</v>
+        <v>2431.5182609782401</v>
       </c>
       <c r="Y3" s="11">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-48552.476920000001</v>
+        <v>1531.5182609782401</v>
       </c>
       <c r="Z3" s="11">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-48480.476920000001</v>
+        <v>1603.5182609782401</v>
       </c>
       <c r="AA3" s="11">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-47928.476920000001</v>
+        <v>2155.5182609782401</v>
       </c>
       <c r="AB3" s="11">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -4258,27 +4250,27 @@
       </c>
       <c r="AC3" s="12">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-43974.979018181817</v>
+        <v>1555.9256917984001</v>
       </c>
       <c r="AD3" s="12">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-43898.615381818185</v>
+        <v>1632.2893281620363</v>
       </c>
       <c r="AE3" s="12">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-43320.433563636361</v>
+        <v>2210.4711463438543</v>
       </c>
       <c r="AF3" s="12">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-44138.615381818185</v>
+        <v>1392.2893281620363</v>
       </c>
       <c r="AG3" s="12">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-44073.160836363633</v>
+        <v>1457.7438736165818</v>
       </c>
       <c r="AH3" s="12">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-43571.342654545457</v>
+        <v>1959.5620554347636</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4337,31 +4329,31 @@
       </c>
       <c r="U4" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V4" s="11">
         <f t="shared" si="8"/>
-        <v>-47736.476920000001</v>
+        <v>2347.5182609782401</v>
       </c>
       <c r="W4" s="11">
         <f t="shared" si="9"/>
-        <v>-47616.476920000001</v>
+        <v>2467.5182609782401</v>
       </c>
       <c r="X4" s="11">
         <f t="shared" si="1"/>
-        <v>-45444.476920000001</v>
+        <v>4639.5182609782396</v>
       </c>
       <c r="Y4" s="11">
         <f t="shared" si="10"/>
-        <v>-48000.476920000001</v>
+        <v>2083.5182609782401</v>
       </c>
       <c r="Z4" s="11">
         <f t="shared" si="11"/>
-        <v>-47892.476920000001</v>
+        <v>2191.5182609782401</v>
       </c>
       <c r="AA4" s="11">
         <f t="shared" si="12"/>
-        <v>-45936.476920000001</v>
+        <v>4147.5182609782396</v>
       </c>
       <c r="AB4" s="11">
         <f t="shared" si="13"/>
@@ -4369,27 +4361,27 @@
       </c>
       <c r="AC4" s="12">
         <f t="shared" si="14"/>
-        <v>-39451.633818181814</v>
+        <v>1940.0977363456527</v>
       </c>
       <c r="AD4" s="12">
         <f t="shared" si="15"/>
-        <v>-39352.460264462803</v>
+        <v>2039.2712900646609</v>
       </c>
       <c r="AE4" s="12">
         <f t="shared" si="16"/>
-        <v>-37557.418942148754</v>
+        <v>3834.3126123787101</v>
       </c>
       <c r="AF4" s="12">
         <f t="shared" si="17"/>
-        <v>-39669.81563636363</v>
+        <v>1721.9159181638345</v>
       </c>
       <c r="AG4" s="12">
         <f t="shared" si="18"/>
-        <v>-39580.559438016528</v>
+        <v>1811.172116510942</v>
       </c>
       <c r="AH4" s="12">
         <f t="shared" si="19"/>
-        <v>-37964.03051239669</v>
+        <v>3427.7010421307764</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4449,31 +4441,31 @@
       </c>
       <c r="U5" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V5" s="11">
         <f t="shared" si="8"/>
-        <v>-46908.476920000001</v>
+        <v>3175.5182609782401</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="9"/>
-        <v>-46572.476920000001</v>
+        <v>3511.5182609782401</v>
       </c>
       <c r="X5" s="11">
         <f t="shared" si="1"/>
-        <v>-41052.476920000001</v>
+        <v>9031.5182609782405</v>
       </c>
       <c r="Y5" s="11">
         <f t="shared" si="10"/>
-        <v>-47244.476920000001</v>
+        <v>2839.5182609782401</v>
       </c>
       <c r="Z5" s="11">
         <f t="shared" si="11"/>
-        <v>-46932.476920000001</v>
+        <v>3151.5182609782401</v>
       </c>
       <c r="AA5" s="11">
         <f t="shared" si="12"/>
-        <v>-41976.476920000001</v>
+        <v>8107.5182609782396</v>
       </c>
       <c r="AB5" s="11">
         <f t="shared" si="13"/>
@@ -4481,27 +4473,27 @@
       </c>
       <c r="AC5" s="12">
         <f t="shared" si="14"/>
-        <v>-35243.032997746042</v>
+        <v>2385.81387000619</v>
       </c>
       <c r="AD5" s="12">
         <f t="shared" si="15"/>
-        <v>-34990.591224643118</v>
+        <v>2638.2556431091202</v>
       </c>
       <c r="AE5" s="12">
         <f t="shared" si="16"/>
-        <v>-30843.333523666406</v>
+        <v>6785.513344085829</v>
       </c>
       <c r="AF5" s="12">
         <f t="shared" si="17"/>
-        <v>-35495.474770848974</v>
+        <v>2133.3720969032602</v>
       </c>
       <c r="AG5" s="12">
         <f t="shared" si="18"/>
-        <v>-35261.064552967684</v>
+        <v>2367.7823147845525</v>
       </c>
       <c r="AH5" s="12">
         <f t="shared" si="19"/>
-        <v>-31537.548399699466</v>
+        <v>6091.2984680527707</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4561,31 +4553,31 @@
       </c>
       <c r="U6" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V6" s="11">
         <f t="shared" si="8"/>
-        <v>-45744.476920000001</v>
+        <v>4339.5182609782396</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="9"/>
-        <v>-45132.476920000001</v>
+        <v>4951.5182609782396</v>
       </c>
       <c r="X6" s="11">
         <f t="shared" si="1"/>
-        <v>-32556.476920000001</v>
+        <v>17527.518260978239</v>
       </c>
       <c r="Y6" s="11">
         <f t="shared" si="10"/>
-        <v>-46212.476920000001</v>
+        <v>3871.5182609782401</v>
       </c>
       <c r="Z6" s="11">
         <f t="shared" si="11"/>
-        <v>-45648.476920000001</v>
+        <v>4435.5182609782396</v>
       </c>
       <c r="AA6" s="11">
         <f t="shared" si="12"/>
-        <v>-34320.476920000001</v>
+        <v>15763.518260978241</v>
       </c>
       <c r="AB6" s="11">
         <f t="shared" si="13"/>
@@ -4593,27 +4585,27 @@
       </c>
       <c r="AC6" s="12">
         <f t="shared" si="14"/>
-        <v>-31244.093244996919</v>
+        <v>2963.9493620505691</v>
       </c>
       <c r="AD6" s="12">
         <f t="shared" si="15"/>
-        <v>-30826.089010313495</v>
+        <v>3381.9535967339925</v>
       </c>
       <c r="AE6" s="12">
         <f t="shared" si="16"/>
-        <v>-22236.511795642371</v>
+        <v>11971.530811405119</v>
       </c>
       <c r="AF6" s="12">
         <f t="shared" si="17"/>
-        <v>-31563.743542107772</v>
+        <v>2644.2990649397166</v>
       </c>
       <c r="AG6" s="12">
         <f t="shared" si="18"/>
-        <v>-31178.523953281874</v>
+        <v>3029.5186537656159</v>
       </c>
       <c r="AH6" s="12">
         <f t="shared" si="19"/>
-        <v>-23441.347530906354</v>
+        <v>10766.695076141135</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4673,31 +4665,31 @@
       </c>
       <c r="U7" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V7" s="11">
         <f t="shared" si="8"/>
-        <v>-44160.476920000001</v>
+        <v>5923.5182609782396</v>
       </c>
       <c r="W7" s="11">
         <f t="shared" si="9"/>
-        <v>-43092.476920000001</v>
+        <v>6991.5182609782396</v>
       </c>
       <c r="X7" s="11">
         <f t="shared" si="1"/>
-        <v>-16260.476920000001</v>
+        <v>33823.518260978242</v>
       </c>
       <c r="Y7" s="11">
         <f t="shared" si="10"/>
-        <v>-44760.476920000001</v>
+        <v>5323.5182609782396</v>
       </c>
       <c r="Z7" s="11">
         <f t="shared" si="11"/>
-        <v>-43812.476920000001</v>
+        <v>6271.5182609782396</v>
       </c>
       <c r="AA7" s="11">
         <f t="shared" si="12"/>
-        <v>-19668.476920000001</v>
+        <v>30415.518260978239</v>
       </c>
       <c r="AB7" s="11">
         <f t="shared" si="13"/>
@@ -4705,27 +4697,27 @@
       </c>
       <c r="AC7" s="12">
         <f t="shared" si="14"/>
-        <v>-27420.181756089674</v>
+        <v>3678.038795771673</v>
       </c>
       <c r="AD7" s="12">
         <f t="shared" si="15"/>
-        <v>-26757.037783062497</v>
+        <v>4341.1827687988507</v>
       </c>
       <c r="AE7" s="12">
         <f t="shared" si="16"/>
-        <v>-10096.476842739254</v>
+        <v>21001.743709122096</v>
       </c>
       <c r="AF7" s="12">
         <f t="shared" si="17"/>
-        <v>-27792.734549925168</v>
+        <v>3305.4860019361799</v>
       </c>
       <c r="AG7" s="12">
         <f t="shared" si="18"/>
-        <v>-27204.101135665089</v>
+        <v>3894.119416196259</v>
       </c>
       <c r="AH7" s="12">
         <f t="shared" si="19"/>
-        <v>-12212.576711724852</v>
+        <v>18885.643840136494</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4785,31 +4777,31 @@
       </c>
       <c r="U8" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V8" s="11">
         <f t="shared" si="8"/>
-        <v>-41976.476920000001</v>
+        <v>8107.5182609782396</v>
       </c>
       <c r="W8" s="11">
         <f t="shared" si="9"/>
-        <v>-40176.476920000001</v>
+        <v>9907.5182609782405</v>
       </c>
       <c r="X8" s="11">
         <f t="shared" si="1"/>
-        <v>13643.523079999999</v>
+        <v>63727.518260978242</v>
       </c>
       <c r="Y8" s="11">
         <f t="shared" si="10"/>
-        <v>-42828.476920000001</v>
+        <v>7255.5182609782396</v>
       </c>
       <c r="Z8" s="11">
         <f t="shared" si="11"/>
-        <v>-41172.476920000001</v>
+        <v>8911.5182609782405</v>
       </c>
       <c r="AA8" s="11">
         <f t="shared" si="12"/>
-        <v>7247.523079999999</v>
+        <v>57331.518260978242</v>
       </c>
       <c r="AB8" s="11">
         <f t="shared" si="13"/>
@@ -4817,27 +4809,27 @@
       </c>
       <c r="AC8" s="12">
         <f t="shared" si="14"/>
-        <v>-23694.626896844075</v>
+        <v>4576.4826957571522</v>
       </c>
       <c r="AD8" s="12">
         <f t="shared" si="15"/>
-        <v>-22678.573822747276</v>
+        <v>5592.5357698539519</v>
       </c>
       <c r="AE8" s="12">
         <f t="shared" si="16"/>
-        <v>7701.4130927470142</v>
+        <v>35972.522685348245</v>
       </c>
       <c r="AF8" s="12">
         <f t="shared" si="17"/>
-        <v>-24175.558685249893</v>
+        <v>4095.550907351334</v>
       </c>
       <c r="AG8" s="12">
         <f t="shared" si="18"/>
-        <v>-23240.789857080836</v>
+        <v>5030.3197355203902</v>
       </c>
       <c r="AH8" s="12">
         <f t="shared" si="19"/>
-        <v>4091.0378361230555</v>
+        <v>32362.147428724285</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4896,31 +4888,31 @@
       </c>
       <c r="U9" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V9" s="11">
         <f t="shared" si="8"/>
-        <v>-39000.476920000001</v>
+        <v>11083.518260978241</v>
       </c>
       <c r="W9" s="11">
         <f t="shared" si="9"/>
-        <v>-36072.476920000001</v>
+        <v>14011.518260978241</v>
       </c>
       <c r="X9" s="11">
         <f t="shared" si="1"/>
-        <v>64451.523079999999</v>
+        <v>114535.51826097824</v>
       </c>
       <c r="Y9" s="11">
         <f t="shared" si="10"/>
-        <v>-40128.476920000001</v>
+        <v>9955.5182609782405</v>
       </c>
       <c r="Z9" s="11">
         <f t="shared" si="11"/>
-        <v>-37512.476920000001</v>
+        <v>12571.518260978241</v>
       </c>
       <c r="AA9" s="11">
         <f t="shared" si="12"/>
-        <v>52979.523079999999</v>
+        <v>103063.51826097824</v>
       </c>
       <c r="AB9" s="11">
         <f t="shared" si="13"/>
@@ -4928,27 +4920,27 @@
       </c>
       <c r="AC9" s="12">
         <f t="shared" si="14"/>
-        <v>-20013.411346367298</v>
+        <v>5687.5973741792659</v>
       </c>
       <c r="AD9" s="12">
         <f t="shared" si="15"/>
-        <v>-18510.884376187791</v>
+        <v>7190.1243443587746</v>
       </c>
       <c r="AE9" s="12">
         <f t="shared" si="16"/>
-        <v>33073.822300835745</v>
+        <v>58774.831021382306</v>
       </c>
       <c r="AF9" s="12">
         <f t="shared" si="17"/>
-        <v>-20592.253703731534</v>
+        <v>5108.7550168150292</v>
       </c>
       <c r="AG9" s="12">
         <f t="shared" si="18"/>
-        <v>-19249.832066440009</v>
+        <v>6451.1766541065572</v>
       </c>
       <c r="AH9" s="12">
         <f t="shared" si="19"/>
-        <v>27186.872368493081</v>
+        <v>52887.881089039642</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5007,31 +4999,31 @@
       </c>
       <c r="U10" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V10" s="11">
         <f t="shared" si="8"/>
-        <v>-34944.476920000001</v>
+        <v>15139.518260978241</v>
       </c>
       <c r="W10" s="11">
         <f t="shared" si="9"/>
-        <v>-30312.476920000001</v>
+        <v>19771.518260978239</v>
       </c>
       <c r="X10" s="11">
         <f t="shared" si="1"/>
-        <v>138143.52308000001</v>
+        <v>188227.51826097825</v>
       </c>
       <c r="Y10" s="11">
         <f t="shared" si="10"/>
-        <v>-36480.476920000001</v>
+        <v>13603.518260978241</v>
       </c>
       <c r="Z10" s="11">
         <f t="shared" si="11"/>
-        <v>-32328.476920000001</v>
+        <v>17755.518260978239</v>
       </c>
       <c r="AA10" s="11">
         <f t="shared" si="12"/>
-        <v>119291.52308</v>
+        <v>169375.51826097825</v>
       </c>
       <c r="AB10" s="11">
         <f t="shared" si="13"/>
@@ -5039,27 +5031,27 @@
       </c>
       <c r="AC10" s="12">
         <f t="shared" si="14"/>
-        <v>-16301.856380748684</v>
+        <v>7062.6970015663737</v>
       </c>
       <c r="AD10" s="12">
         <f t="shared" si="15"/>
-        <v>-14140.994195617201</v>
+        <v>9223.5591866978575</v>
       </c>
       <c r="AE10" s="12">
         <f t="shared" si="16"/>
-        <v>64444.973044993611</v>
+        <v>87809.526427308665</v>
       </c>
       <c r="AF10" s="12">
         <f t="shared" si="17"/>
-        <v>-17018.411716750834</v>
+        <v>6346.1416655642242</v>
       </c>
       <c r="AG10" s="12">
         <f t="shared" si="18"/>
-        <v>-15081.473074120024</v>
+        <v>8283.0803081950344</v>
       </c>
       <c r="AH10" s="12">
         <f t="shared" si="19"/>
-        <v>55650.375913279713</v>
+        <v>79014.929295594775</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5118,31 +5110,31 @@
       </c>
       <c r="U11" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V11" s="11">
         <f t="shared" si="8"/>
-        <v>-29472.476920000001</v>
+        <v>20611.518260978239</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="9"/>
-        <v>-22344.476920000001</v>
+        <v>27739.518260978239</v>
       </c>
       <c r="X11" s="11">
         <f t="shared" si="1"/>
-        <v>216887.52308000001</v>
+        <v>266971.51826097822</v>
       </c>
       <c r="Y11" s="11">
         <f t="shared" si="10"/>
-        <v>-31560.476920000001</v>
+        <v>18523.518260978239</v>
       </c>
       <c r="Z11" s="11">
         <f t="shared" si="11"/>
-        <v>-25152.476920000001</v>
+        <v>24931.518260978239</v>
       </c>
       <c r="AA11" s="11">
         <f t="shared" si="12"/>
-        <v>190175.52308000001</v>
+        <v>240259.51826097825</v>
       </c>
       <c r="AB11" s="11">
         <f t="shared" si="13"/>
@@ -5150,27 +5142,27 @@
       </c>
       <c r="AC11" s="12">
         <f t="shared" si="14"/>
-        <v>-12499.207269310022</v>
+        <v>8741.2958055218478</v>
       </c>
       <c r="AD11" s="12">
         <f t="shared" si="15"/>
-        <v>-9476.2394455509511</v>
+        <v>11764.263629280918</v>
       </c>
       <c r="AE11" s="12">
         <f t="shared" si="16"/>
-        <v>91981.481992935311</v>
+        <v>113221.98506776716</v>
       </c>
       <c r="AF11" s="12">
         <f t="shared" si="17"/>
-        <v>-13384.723096471771</v>
+        <v>7855.7799783600994</v>
       </c>
       <c r="AG11" s="12">
         <f t="shared" si="18"/>
-        <v>-10667.105557940889</v>
+        <v>10573.397516890982</v>
       </c>
       <c r="AH11" s="12">
         <f t="shared" si="19"/>
-        <v>80652.98641096949</v>
+        <v>101893.48948580136</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5230,31 +5222,31 @@
       </c>
       <c r="U12" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V12" s="11">
         <f t="shared" si="8"/>
-        <v>-22128.476920000001</v>
+        <v>27955.518260978239</v>
       </c>
       <c r="W12" s="11">
         <f t="shared" si="9"/>
-        <v>-11508.476920000001</v>
+        <v>38575.518260978242</v>
       </c>
       <c r="X12" s="11">
         <f t="shared" si="1"/>
-        <v>264167.52308000001</v>
+        <v>314251.51826097822</v>
       </c>
       <c r="Y12" s="11">
         <f t="shared" si="10"/>
-        <v>-24960.476920000001</v>
+        <v>25123.518260978239</v>
       </c>
       <c r="Z12" s="11">
         <f t="shared" si="11"/>
-        <v>-15384.476920000001</v>
+        <v>34699.518260978242</v>
       </c>
       <c r="AA12" s="11">
         <f t="shared" si="12"/>
-        <v>232727.52308000001</v>
+        <v>282811.51826097822</v>
       </c>
       <c r="AB12" s="11">
         <f t="shared" si="13"/>
@@ -5262,27 +5254,27 @@
       </c>
       <c r="AC12" s="12">
         <f t="shared" si="14"/>
-        <v>-8531.4857818022683</v>
+        <v>10778.062468044885</v>
       </c>
       <c r="AD12" s="12">
         <f t="shared" si="15"/>
-        <v>-4437.0160480606437</v>
+        <v>14872.532201786511</v>
       </c>
       <c r="AE12" s="12">
         <f t="shared" si="16"/>
-        <v>101848.01580871489</v>
+        <v>121157.56405856203</v>
       </c>
       <c r="AF12" s="12">
         <f t="shared" si="17"/>
-        <v>-9623.3443774667012</v>
+        <v>9686.2038723804526</v>
       </c>
       <c r="AG12" s="12">
         <f t="shared" si="18"/>
-        <v>-5931.3818378895076</v>
+        <v>13378.166411957647</v>
       </c>
       <c r="AH12" s="12">
         <f t="shared" si="19"/>
-        <v>89726.534789050405</v>
+        <v>109036.08303889756</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5341,31 +5333,31 @@
       </c>
       <c r="U13" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V13" s="11">
         <f t="shared" si="8"/>
-        <v>-12480.476920000001</v>
+        <v>37603.518260978242</v>
       </c>
       <c r="W13" s="11">
         <f t="shared" si="9"/>
-        <v>3083.523079999999</v>
+        <v>53167.518260978242</v>
       </c>
       <c r="X13" s="11">
         <f t="shared" si="1"/>
-        <v>274307.52308000001</v>
+        <v>324391.51826097822</v>
       </c>
       <c r="Y13" s="11">
         <f t="shared" si="10"/>
-        <v>-16272.476920000001</v>
+        <v>33811.518260978242</v>
       </c>
       <c r="Z13" s="11">
         <f t="shared" si="11"/>
-        <v>-2268.476920000001</v>
+        <v>47815.518260978242</v>
       </c>
       <c r="AA13" s="11">
         <f t="shared" si="12"/>
-        <v>241859.52308000001</v>
+        <v>291943.51826097822</v>
       </c>
       <c r="AB13" s="11">
         <f t="shared" si="13"/>
@@ -5373,27 +5365,27 @@
       </c>
       <c r="AC13" s="12">
         <f t="shared" si="14"/>
-        <v>-4374.3310230783154</v>
+        <v>13179.803749510003</v>
       </c>
       <c r="AD13" s="12">
         <f t="shared" si="15"/>
-        <v>1080.7560284500726</v>
+        <v>18634.890801038393</v>
       </c>
       <c r="AE13" s="12">
         <f t="shared" si="16"/>
-        <v>96143.113421391201</v>
+        <v>113697.2481939795</v>
       </c>
       <c r="AF13" s="12">
         <f t="shared" si="17"/>
-        <v>-5703.403889911755</v>
+        <v>11850.730882676566</v>
       </c>
       <c r="AG13" s="12">
         <f t="shared" si="18"/>
-        <v>-795.08732157433849</v>
+        <v>16759.047451013983</v>
       </c>
       <c r="AH13" s="12">
         <f t="shared" si="19"/>
-        <v>84770.287371018989</v>
+        <v>102324.42214360728</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5452,31 +5444,31 @@
       </c>
       <c r="U14" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V14" s="11">
         <f t="shared" si="8"/>
-        <v>143.52307999999903</v>
+        <v>50227.518260978242</v>
       </c>
       <c r="W14" s="11">
         <f t="shared" si="9"/>
-        <v>22127.523079999999</v>
+        <v>72211.518260978235</v>
       </c>
       <c r="X14" s="11">
         <f t="shared" si="1"/>
-        <v>274763.52308000001</v>
+        <v>324847.51826097822</v>
       </c>
       <c r="Y14" s="11">
         <f t="shared" si="10"/>
-        <v>-4896.476920000001</v>
+        <v>45187.518260978242</v>
       </c>
       <c r="Z14" s="11">
         <f t="shared" si="11"/>
-        <v>14891.523079999999</v>
+        <v>64975.518260978242</v>
       </c>
       <c r="AA14" s="11">
         <f t="shared" si="12"/>
-        <v>242243.52308000001</v>
+        <v>292327.51826097822</v>
       </c>
       <c r="AB14" s="11">
         <f t="shared" si="13"/>
@@ -5484,27 +5476,27 @@
       </c>
       <c r="AC14" s="12">
         <f t="shared" si="14"/>
-        <v>45.730876340708612</v>
+        <v>16004.035215057364</v>
       </c>
       <c r="AD14" s="12">
         <f t="shared" si="15"/>
-        <v>7050.5107728851872</v>
+        <v>23008.815111601842</v>
       </c>
       <c r="AE14" s="12">
         <f t="shared" si="16"/>
-        <v>87548.126035958834</v>
+        <v>103506.43037467547</v>
       </c>
       <c r="AF14" s="12">
         <f t="shared" si="17"/>
-        <v>-1560.1684449194884</v>
+        <v>14398.135893797167</v>
       </c>
       <c r="AG14" s="12">
         <f t="shared" si="18"/>
-        <v>4744.8981759330472</v>
+        <v>20703.202514649704</v>
       </c>
       <c r="AH14" s="12">
         <f t="shared" si="19"/>
-        <v>77186.251844018043</v>
+        <v>93144.556182734683</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5563,31 +5555,31 @@
       </c>
       <c r="U15" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V15" s="11">
         <f t="shared" si="8"/>
-        <v>16223.523079999999</v>
+        <v>66307.518260978235</v>
       </c>
       <c r="W15" s="11">
         <f t="shared" si="9"/>
-        <v>46247.523079999999</v>
+        <v>96331.518260978235</v>
       </c>
       <c r="X15" s="11">
         <f t="shared" si="1"/>
-        <v>274847.52308000001</v>
+        <v>324931.51826097822</v>
       </c>
       <c r="Y15" s="11">
         <f t="shared" si="10"/>
-        <v>9587.523079999999</v>
+        <v>59671.518260978242</v>
       </c>
       <c r="Z15" s="11">
         <f t="shared" si="11"/>
-        <v>36587.523079999999</v>
+        <v>86671.518260978235</v>
       </c>
       <c r="AA15" s="11">
         <f t="shared" si="12"/>
-        <v>242327.52308000001</v>
+        <v>292411.51826097822</v>
       </c>
       <c r="AB15" s="11">
         <f t="shared" si="13"/>
@@ -5595,27 +5587,27 @@
       </c>
       <c r="AC15" s="12">
         <f t="shared" si="14"/>
-        <v>4699.3767501120383</v>
+        <v>19206.92614894536</v>
       </c>
       <c r="AD15" s="12">
         <f t="shared" si="15"/>
-        <v>13396.260087326353</v>
+        <v>27903.809486159673</v>
       </c>
       <c r="AE15" s="12">
         <f t="shared" si="16"/>
-        <v>79613.537295133181</v>
+        <v>94121.086693966499</v>
       </c>
       <c r="AF15" s="12">
         <f t="shared" si="17"/>
-        <v>2777.1639261793784</v>
+        <v>17284.713325012701</v>
       </c>
       <c r="AG15" s="12">
         <f t="shared" si="18"/>
-        <v>10598.102179069949</v>
+        <v>25105.651577903271</v>
       </c>
       <c r="AH15" s="12">
         <f t="shared" si="19"/>
-        <v>70193.651666096106</v>
+        <v>84701.20106492941</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5674,31 +5666,31 @@
       </c>
       <c r="U16" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V16" s="11">
         <f t="shared" si="8"/>
-        <v>36215.523079999999</v>
+        <v>86299.518260978235</v>
       </c>
       <c r="W16" s="11">
         <f t="shared" si="9"/>
-        <v>75275.523079999999</v>
+        <v>125359.51826097824</v>
       </c>
       <c r="X16" s="11">
         <f t="shared" si="1"/>
-        <v>274883.52308000001</v>
+        <v>324967.51826097822</v>
       </c>
       <c r="Y16" s="11">
         <f t="shared" si="10"/>
-        <v>27551.523079999999</v>
+        <v>77635.518260978235</v>
       </c>
       <c r="Z16" s="11">
         <f t="shared" si="11"/>
-        <v>62699.523079999999</v>
+        <v>112783.51826097824</v>
       </c>
       <c r="AA16" s="11">
         <f t="shared" si="12"/>
-        <v>242351.52308000001</v>
+        <v>292435.51826097822</v>
       </c>
       <c r="AB16" s="11">
         <f t="shared" si="13"/>
@@ -5706,27 +5698,27 @@
       </c>
       <c r="AC16" s="12">
         <f t="shared" si="14"/>
-        <v>9536.6791180071796</v>
+        <v>22725.360389673831</v>
       </c>
       <c r="AD16" s="12">
         <f t="shared" si="15"/>
-        <v>19822.397911202654</v>
+        <v>33011.079182869304</v>
       </c>
       <c r="AE16" s="12">
         <f t="shared" si="16"/>
-        <v>72385.42292073062</v>
+        <v>85574.104192397266</v>
       </c>
       <c r="AF16" s="12">
         <f t="shared" si="17"/>
-        <v>7255.1771306993051</v>
+        <v>20443.858402365957</v>
       </c>
       <c r="AG16" s="12">
         <f t="shared" si="18"/>
-        <v>16510.744057049396</v>
+        <v>29699.425328716046</v>
       </c>
       <c r="AH16" s="12">
         <f t="shared" si="19"/>
-        <v>63818.730555645234</v>
+        <v>77007.41182731188</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5785,31 +5777,31 @@
       </c>
       <c r="U17" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V17" s="11">
         <f t="shared" si="8"/>
-        <v>60251.523079999999</v>
+        <v>110335.51826097824</v>
       </c>
       <c r="W17" s="11">
         <f t="shared" si="9"/>
-        <v>108299.52308</v>
+        <v>158383.51826097825</v>
       </c>
       <c r="X17" s="11">
         <f t="shared" si="1"/>
-        <v>274907.52308000001</v>
+        <v>324991.51826097822</v>
       </c>
       <c r="Y17" s="11">
         <f t="shared" si="10"/>
-        <v>49187.523079999999</v>
+        <v>99271.518260978235</v>
       </c>
       <c r="Z17" s="11">
         <f t="shared" si="11"/>
-        <v>92459.523079999999</v>
+        <v>142543.51826097825</v>
       </c>
       <c r="AA17" s="11">
         <f t="shared" si="12"/>
-        <v>242375.52308000001</v>
+        <v>292459.51826097822</v>
       </c>
       <c r="AB17" s="11">
         <f t="shared" si="13"/>
@@ -5817,27 +5809,27 @@
       </c>
       <c r="AC17" s="12">
         <f t="shared" si="14"/>
-        <v>14423.735587734647</v>
+        <v>26413.445834704329</v>
       </c>
       <c r="AD17" s="12">
         <f t="shared" si="15"/>
-        <v>25926.044775824208</v>
+        <v>37915.755022793899</v>
       </c>
       <c r="AE17" s="12">
         <f t="shared" si="16"/>
-        <v>65810.675337121793</v>
+        <v>77800.385584091462</v>
       </c>
       <c r="AF17" s="12">
         <f t="shared" si="17"/>
-        <v>11775.101953514224</v>
+        <v>23764.812200483906</v>
       </c>
       <c r="AG17" s="12">
         <f t="shared" si="18"/>
-        <v>22134.074713816663</v>
+        <v>34123.784960786346</v>
       </c>
       <c r="AH17" s="12">
         <f t="shared" si="19"/>
-        <v>58022.773187044164</v>
+        <v>70012.483434013833</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5896,31 +5888,31 @@
       </c>
       <c r="U18" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V18" s="11">
         <f t="shared" si="8"/>
-        <v>87899.523079999999</v>
+        <v>137983.51826097825</v>
       </c>
       <c r="W18" s="11">
         <f t="shared" si="9"/>
-        <v>143159.52308000001</v>
+        <v>193243.51826097825</v>
       </c>
       <c r="X18" s="11">
         <f t="shared" si="1"/>
-        <v>274919.52308000001</v>
+        <v>325003.51826097822</v>
       </c>
       <c r="Y18" s="11">
         <f t="shared" si="10"/>
-        <v>74075.523079999999</v>
+        <v>124159.51826097824</v>
       </c>
       <c r="Z18" s="11">
         <f t="shared" si="11"/>
-        <v>123827.52308</v>
+        <v>173911.51826097825</v>
       </c>
       <c r="AA18" s="11">
         <f t="shared" si="12"/>
-        <v>242387.52308000001</v>
+        <v>292471.51826097822</v>
       </c>
       <c r="AB18" s="11">
         <f t="shared" si="13"/>
@@ -5928,27 +5920,27 @@
       </c>
       <c r="AC18" s="12">
         <f t="shared" si="14"/>
-        <v>19129.497244266615</v>
+        <v>30029.233832420876</v>
       </c>
       <c r="AD18" s="12">
         <f t="shared" si="15"/>
-        <v>31155.683288030225</v>
+        <v>42055.419876184482</v>
       </c>
       <c r="AE18" s="12">
         <f t="shared" si="16"/>
-        <v>59830.498219740199</v>
+        <v>70730.234807894449</v>
       </c>
       <c r="AF18" s="12">
         <f t="shared" si="17"/>
-        <v>16120.992071103601</v>
+        <v>27020.72865925786</v>
       </c>
       <c r="AG18" s="12">
         <f t="shared" si="18"/>
-        <v>26948.476834935071</v>
+        <v>37848.213423089328</v>
       </c>
       <c r="AH18" s="12">
         <f t="shared" si="19"/>
-        <v>52750.587174215085</v>
+        <v>63650.323762369335</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5998,31 +5990,31 @@
       </c>
       <c r="U19" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V19" s="11">
         <f t="shared" si="8"/>
-        <v>117983.52308</v>
+        <v>168067.51826097825</v>
       </c>
       <c r="W19" s="11">
         <f t="shared" si="9"/>
-        <v>176759.52308000001</v>
+        <v>226843.51826097825</v>
       </c>
       <c r="X19" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52308000001</v>
+        <v>325015.51826097822</v>
       </c>
       <c r="Y19" s="11">
         <f t="shared" si="10"/>
-        <v>101171.52308</v>
+        <v>151255.51826097825</v>
       </c>
       <c r="Z19" s="11">
         <f t="shared" si="11"/>
-        <v>154031.52308000001</v>
+        <v>204115.51826097825</v>
       </c>
       <c r="AA19" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52308000001</v>
+        <v>292483.51826097822</v>
       </c>
       <c r="AB19" s="11">
         <f t="shared" si="13"/>
@@ -6030,27 +6022,27 @@
       </c>
       <c r="AC19" s="12">
         <f t="shared" si="14"/>
-        <v>23342.411059434038</v>
+        <v>33251.262503210637</v>
       </c>
       <c r="AD19" s="12">
         <f t="shared" si="15"/>
-        <v>34970.929318708375</v>
+        <v>44879.780762484974</v>
       </c>
       <c r="AE19" s="12">
         <f t="shared" si="16"/>
-        <v>54393.73615397243</v>
+        <v>64302.587597749021</v>
       </c>
       <c r="AF19" s="12">
         <f t="shared" si="17"/>
-        <v>20016.246485884967</v>
+        <v>29925.09792966157</v>
       </c>
       <c r="AG19" s="12">
         <f t="shared" si="18"/>
-        <v>30474.315683946108</v>
+        <v>40383.167127722707</v>
       </c>
       <c r="AH19" s="12">
         <f t="shared" si="19"/>
-        <v>47957.453385313238</v>
+        <v>57866.30482908983</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -6100,31 +6092,31 @@
       </c>
       <c r="U20" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V20" s="11">
         <f t="shared" si="8"/>
-        <v>148739.52308000001</v>
+        <v>198823.51826097825</v>
       </c>
       <c r="W20" s="11">
         <f t="shared" si="9"/>
-        <v>206135.52308000001</v>
+        <v>256219.51826097825</v>
       </c>
       <c r="X20" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52308000001</v>
+        <v>325015.51826097822</v>
       </c>
       <c r="Y20" s="11">
         <f t="shared" si="10"/>
-        <v>128843.52308</v>
+        <v>178927.51826097825</v>
       </c>
       <c r="Z20" s="11">
         <f t="shared" si="11"/>
-        <v>180479.52308000001</v>
+        <v>230563.51826097825</v>
       </c>
       <c r="AA20" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52308000001</v>
+        <v>292483.51826097822</v>
       </c>
       <c r="AB20" s="11">
         <f t="shared" si="13"/>
@@ -6132,27 +6124,27 @@
       </c>
       <c r="AC20" s="12">
         <f t="shared" si="14"/>
-        <v>26752.110632842356</v>
+        <v>35760.157399911986</v>
       </c>
       <c r="AD20" s="12">
         <f t="shared" si="15"/>
-        <v>37075.285738471583</v>
+        <v>46083.332505541213</v>
       </c>
       <c r="AE20" s="12">
         <f t="shared" si="16"/>
-        <v>49448.851049065845</v>
+        <v>58456.897816135468</v>
       </c>
       <c r="AF20" s="12">
         <f t="shared" si="17"/>
-        <v>23173.640148808638</v>
+        <v>32181.686915878276</v>
       </c>
       <c r="AG20" s="12">
         <f t="shared" si="18"/>
-        <v>32460.828624560796</v>
+        <v>41468.875391630427</v>
       </c>
       <c r="AH20" s="12">
         <f t="shared" si="19"/>
-        <v>43597.684895739309</v>
+        <v>52605.731662808932</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -6202,31 +6194,31 @@
       </c>
       <c r="U21" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V21" s="11">
         <f t="shared" si="8"/>
-        <v>177995.52308000001</v>
+        <v>228079.51826097825</v>
       </c>
       <c r="W21" s="11">
         <f t="shared" si="9"/>
-        <v>229391.52308000001</v>
+        <v>279475.51826097822</v>
       </c>
       <c r="X21" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52308000001</v>
+        <v>325015.51826097822</v>
       </c>
       <c r="Y21" s="11">
         <f t="shared" si="10"/>
-        <v>155171.52308000001</v>
+        <v>205255.51826097825</v>
       </c>
       <c r="Z21" s="11">
         <f t="shared" si="11"/>
-        <v>201443.52308000001</v>
+        <v>251527.51826097825</v>
       </c>
       <c r="AA21" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52308000001</v>
+        <v>292483.51826097822</v>
       </c>
       <c r="AB21" s="11">
         <f t="shared" si="13"/>
@@ -6234,27 +6226,27 @@
       </c>
       <c r="AC21" s="12">
         <f t="shared" si="14"/>
-        <v>29103.690354933002</v>
+        <v>37292.823779541759</v>
       </c>
       <c r="AD21" s="12">
         <f t="shared" si="15"/>
-        <v>37507.347051454766</v>
+        <v>45696.480476063516</v>
       </c>
       <c r="AE21" s="12">
         <f t="shared" si="16"/>
-        <v>44953.50095369621</v>
+        <v>53142.63437830496</v>
       </c>
       <c r="AF21" s="12">
         <f t="shared" si="17"/>
-        <v>25371.783972307647</v>
+        <v>33560.917396916404</v>
       </c>
       <c r="AG21" s="12">
         <f t="shared" si="18"/>
-        <v>32937.625723834128</v>
+        <v>41126.759148442885</v>
       </c>
       <c r="AH21" s="12">
         <f t="shared" si="19"/>
-        <v>39634.258996126635</v>
+        <v>47823.392420735385</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -6304,31 +6296,31 @@
       </c>
       <c r="U22" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920000001</v>
+        <v>4.4817390217599993</v>
       </c>
       <c r="V22" s="11">
         <f t="shared" si="8"/>
-        <v>203783.52308000001</v>
+        <v>253867.51826097825</v>
       </c>
       <c r="W22" s="11">
         <f t="shared" si="9"/>
-        <v>246191.52308000001</v>
+        <v>296275.51826097822</v>
       </c>
       <c r="X22" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52308000001</v>
+        <v>325015.51826097822</v>
       </c>
       <c r="Y22" s="11">
         <f t="shared" si="10"/>
-        <v>178391.52308000001</v>
+        <v>228475.51826097825</v>
       </c>
       <c r="Z22" s="11">
         <f t="shared" si="11"/>
-        <v>216539.52308000001</v>
+        <v>266623.51826097822</v>
       </c>
       <c r="AA22" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52308000001</v>
+        <v>292483.51826097822</v>
       </c>
       <c r="AB22" s="11">
         <f t="shared" si="13"/>
@@ -6336,27 +6328,27 @@
       </c>
       <c r="AC22" s="12">
         <f t="shared" si="14"/>
-        <v>30291.122202152983</v>
+        <v>37735.788951797309</v>
       </c>
       <c r="AD22" s="12">
         <f t="shared" si="15"/>
-        <v>36594.801179400856</v>
+        <v>44039.467929045182</v>
       </c>
       <c r="AE22" s="12">
         <f t="shared" si="16"/>
-        <v>40866.819048814745</v>
+        <v>48311.485798459064</v>
       </c>
       <c r="AF22" s="12">
         <f t="shared" si="17"/>
-        <v>26516.76319936393</v>
+        <v>33961.429949008256</v>
       </c>
       <c r="AG22" s="12">
         <f t="shared" si="18"/>
-        <v>32187.220321228957</v>
+        <v>39631.887070873279</v>
       </c>
       <c r="AH22" s="12">
         <f t="shared" si="19"/>
-        <v>36031.14454193331</v>
+        <v>43475.811291577629</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
